--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49441538-D590-CF48-AE36-F95339540820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44E35DE-5AA7-DF41-8614-CAF09925AB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="runs" sheetId="1" r:id="rId1"/>
+    <sheet name="realtime" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
   <si>
     <t>tool</t>
   </si>
@@ -129,6 +130,30 @@
   </si>
   <si>
     <t>x1_80.shuffled.cnf.dqdimacs</t>
+  </si>
+  <si>
+    <t>iDQ 1.0</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>unsat</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>uniquely solved</t>
+  </si>
+  <si>
+    <t>dCAQE 4.0.1</t>
   </si>
 </sst>
 </file>
@@ -480,29 +505,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>83.306055338999997</v>
+      </c>
+      <c r="D4">
+        <v>83.279943648725705</v>
+      </c>
+      <c r="E4">
+        <v>75.911168000000004</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>7.1597689390000001</v>
+      </c>
+      <c r="H4">
+        <v>7.2113459296524498</v>
+      </c>
+      <c r="I4">
+        <v>12.451839999999899</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>1.2117892699999999</v>
+      </c>
+      <c r="L4">
+        <v>1.25940238</v>
+      </c>
+      <c r="M4">
+        <v>9.6911360000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>82.869916515</v>
+      </c>
+      <c r="D5">
+        <v>82.856391336768795</v>
+      </c>
+      <c r="E5">
+        <v>46.878720000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>673.969271058</v>
+      </c>
+      <c r="H5">
+        <v>673.52608915418296</v>
+      </c>
+      <c r="I5">
+        <v>29.356031999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>336.620182</v>
+      </c>
+      <c r="L5">
+        <v>336.42567300000002</v>
+      </c>
+      <c r="M5">
+        <v>30.519296000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>85.276020025999998</v>
+      </c>
+      <c r="D6">
+        <v>85.2561576254665</v>
+      </c>
+      <c r="E6">
+        <v>86.683647999999906</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>1.1581144590000001</v>
+      </c>
+      <c r="H6">
+        <v>1.20970898866653</v>
+      </c>
+      <c r="I6">
+        <v>10.878976</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>53.969652600000003</v>
+      </c>
+      <c r="L6">
+        <v>54.001455200000002</v>
+      </c>
+      <c r="M6">
+        <v>59.674624000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>83.220756042999994</v>
+      </c>
+      <c r="D7">
+        <v>83.308085199445401</v>
+      </c>
+      <c r="E7">
+        <v>55.492607999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>67.756034579000001</v>
+      </c>
+      <c r="H7">
+        <v>67.748395364731493</v>
+      </c>
+      <c r="I7">
+        <v>14.9422079999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>64.271560699999995</v>
+      </c>
+      <c r="L7">
+        <v>64.265265099999993</v>
+      </c>
+      <c r="M7">
+        <v>25.497599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>83.842513452999995</v>
+      </c>
+      <c r="D8">
+        <v>83.8520228378474</v>
+      </c>
+      <c r="E8">
+        <v>79.011839999999907</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>901.68028043799995</v>
+      </c>
+      <c r="H8">
+        <v>901.06565504893604</v>
+      </c>
+      <c r="I8">
+        <v>45.613056</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>901.57887100000005</v>
+      </c>
+      <c r="L8">
+        <v>901.04948300000001</v>
+      </c>
+      <c r="M8">
+        <v>44.232703999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>81.724519185999995</v>
+      </c>
+      <c r="D9">
+        <v>81.715359594672904</v>
+      </c>
+      <c r="E9">
+        <v>51.216383999999998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>340.50925472699998</v>
+      </c>
+      <c r="H9">
+        <v>340.29309418797402</v>
+      </c>
+      <c r="I9">
+        <v>25.505792</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>901.67507499999999</v>
+      </c>
+      <c r="L9">
+        <v>901.04954699999996</v>
+      </c>
+      <c r="M9">
+        <v>35.92192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>102.56402504</v>
+      </c>
+      <c r="D10">
+        <v>102.540047347545</v>
+      </c>
+      <c r="E10">
+        <v>32.202751999999997</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>901.68419172200004</v>
+      </c>
+      <c r="H10">
+        <v>901.06116360798399</v>
+      </c>
+      <c r="I10">
+        <v>32.501759999999997</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>901.67627200000004</v>
+      </c>
+      <c r="L10">
+        <v>901.05004599999995</v>
+      </c>
+      <c r="M10">
+        <v>60.243968000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>83.845712913</v>
+      </c>
+      <c r="D11">
+        <v>83.834945268929005</v>
+      </c>
+      <c r="E11">
+        <v>22.884352</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>901.57717511299995</v>
+      </c>
+      <c r="H11">
+        <v>901.06555547565199</v>
+      </c>
+      <c r="I11">
+        <v>32.108544000000002</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>901.68228199999999</v>
+      </c>
+      <c r="L11">
+        <v>901.08191399999998</v>
+      </c>
+      <c r="M11">
+        <v>60.600320000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>102.575096788</v>
+      </c>
+      <c r="D12">
+        <v>102.57107852399299</v>
+      </c>
+      <c r="E12">
+        <v>28.307455999999998</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>901.67143549399998</v>
+      </c>
+      <c r="H12">
+        <v>901.053399160504</v>
+      </c>
+      <c r="I12">
+        <v>26.996735999999999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>901.67924000000005</v>
+      </c>
+      <c r="L12">
+        <v>901.04529700000001</v>
+      </c>
+      <c r="M12">
+        <v>70.750208000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>85.339170010999993</v>
+      </c>
+      <c r="D13">
+        <v>85.323136977851306</v>
+      </c>
+      <c r="E13">
+        <v>24.109055999999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>655.69244914199999</v>
+      </c>
+      <c r="H13">
+        <v>655.24148837849498</v>
+      </c>
+      <c r="I13">
+        <v>27.652096</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>309.08111400000001</v>
+      </c>
+      <c r="L13">
+        <v>308.90180199999998</v>
+      </c>
+      <c r="M13">
+        <v>42.979328000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>62.498337405999997</v>
+      </c>
+      <c r="D14">
+        <v>62.5031681396067</v>
+      </c>
+      <c r="E14">
+        <v>23.773184000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>901.67204617799996</v>
+      </c>
+      <c r="H14">
+        <v>901.041660510003</v>
+      </c>
+      <c r="I14">
+        <v>23.814143999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>901.58239800000001</v>
+      </c>
+      <c r="L14">
+        <v>901.03734199999997</v>
+      </c>
+      <c r="M14">
+        <v>53.170175999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>80.683343082999997</v>
+      </c>
+      <c r="D15">
+        <v>80.667100049555302</v>
+      </c>
+      <c r="E15">
+        <v>24.924160000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>22.157612685</v>
+      </c>
+      <c r="H15">
+        <v>22.201560951769299</v>
+      </c>
+      <c r="I15">
+        <v>7.602176</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>774.74584600000003</v>
+      </c>
+      <c r="L15">
+        <v>774.22584099999995</v>
+      </c>
+      <c r="M15">
+        <v>44.773375999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>80.927348511000005</v>
+      </c>
+      <c r="D16">
+        <v>80.922835372388306</v>
+      </c>
+      <c r="E16">
+        <v>29.298687999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>901.67753131799998</v>
+      </c>
+      <c r="H16">
+        <v>901.03580939769699</v>
+      </c>
+      <c r="I16">
+        <v>25.427968</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>901.68035999999995</v>
+      </c>
+      <c r="L16">
+        <v>901.04152299999998</v>
+      </c>
+      <c r="M16">
+        <v>45.69088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>80.987938712000002</v>
+      </c>
+      <c r="D17">
+        <v>80.983025416731806</v>
+      </c>
+      <c r="E17">
+        <v>29.982719999999901</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>21.589131013999999</v>
+      </c>
+      <c r="H17">
+        <v>21.617405619472201</v>
+      </c>
+      <c r="I17">
+        <v>8.7777279999999998</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>901.67664600000001</v>
+      </c>
+      <c r="L17">
+        <v>901.04966200000001</v>
+      </c>
+      <c r="M17">
+        <v>40.730623999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>81.119088599999998</v>
+      </c>
+      <c r="D18">
+        <v>81.110997717827502</v>
+      </c>
+      <c r="E18">
+        <v>26.9312</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>901.57711608499994</v>
+      </c>
+      <c r="H18">
+        <v>901.04615659639205</v>
+      </c>
+      <c r="I18">
+        <v>28.307455999999998</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>901.67889400000001</v>
+      </c>
+      <c r="L18">
+        <v>901.06595600000003</v>
+      </c>
+      <c r="M18">
+        <v>47.681536000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>81.264221676999995</v>
+      </c>
+      <c r="D19">
+        <v>81.266983501613097</v>
+      </c>
+      <c r="E19">
+        <v>26.656768</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>901.674284167</v>
+      </c>
+      <c r="H19">
+        <v>901.04980370029796</v>
+      </c>
+      <c r="I19">
+        <v>30.011391999999901</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>901.68828199999996</v>
+      </c>
+      <c r="L19">
+        <v>901.05341299999998</v>
+      </c>
+      <c r="M19">
+        <v>44.6464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>81.415272294000005</v>
+      </c>
+      <c r="D20">
+        <v>81.398863218724699</v>
+      </c>
+      <c r="E20">
+        <v>26.525696</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>901.67375465600003</v>
+      </c>
+      <c r="H20">
+        <v>901.04960115253903</v>
+      </c>
+      <c r="I20">
+        <v>31.191039999999902</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>901.67751799999996</v>
+      </c>
+      <c r="L20">
+        <v>901.04962899999998</v>
+      </c>
+      <c r="M20">
+        <v>44.613632000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>81.647702733000003</v>
+      </c>
+      <c r="D21">
+        <v>81.630904611200094</v>
+      </c>
+      <c r="E21">
+        <v>27.766783999999902</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>901.67246519900004</v>
+      </c>
+      <c r="H21">
+        <v>901.049278903752</v>
+      </c>
+      <c r="I21">
+        <v>33.288191999999903</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>901.58476900000005</v>
+      </c>
+      <c r="L21">
+        <v>901.04158399999994</v>
+      </c>
+      <c r="M21">
+        <v>49.192959999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>81.756301664000006</v>
+      </c>
+      <c r="D22">
+        <v>81.750914931297302</v>
+      </c>
+      <c r="E22">
+        <v>39.686143999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>901.67056305400001</v>
+      </c>
+      <c r="H22">
+        <v>901.04939806088805</v>
+      </c>
+      <c r="I22">
+        <v>33.812480000000001</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>901.67888800000003</v>
+      </c>
+      <c r="L22">
+        <v>901.06542999999999</v>
+      </c>
+      <c r="M22">
+        <v>56.262656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>81.956529023000002</v>
+      </c>
+      <c r="D23">
+        <v>81.942896004766197</v>
+      </c>
+      <c r="E23">
+        <v>26.402815999999898</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>901.68153717500002</v>
+      </c>
+      <c r="H23">
+        <v>901.06553350389004</v>
+      </c>
+      <c r="I23">
+        <v>35.913727999999999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>901.67773599999998</v>
+      </c>
+      <c r="L23">
+        <v>901.04989699999999</v>
+      </c>
+      <c r="M23">
+        <v>51.912703999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>80.748274159000005</v>
+      </c>
+      <c r="D24">
+        <v>80.731342058628798</v>
+      </c>
+      <c r="E24">
+        <v>50.229247999999998</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24">
+        <v>12.096434500999999</v>
+      </c>
+      <c r="H24">
+        <v>12.137635651975801</v>
+      </c>
+      <c r="I24">
+        <v>8.3845119999999902</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>20.024503800000002</v>
+      </c>
+      <c r="L24">
+        <v>20.041871100000002</v>
+      </c>
+      <c r="M24">
+        <v>13.918208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>61.548551736</v>
+      </c>
+      <c r="D25">
+        <v>61.547368060797403</v>
+      </c>
+      <c r="E25">
+        <v>59.600895999999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>901.67674892699995</v>
+      </c>
+      <c r="H25">
+        <v>901.04909649118702</v>
+      </c>
+      <c r="I25">
+        <v>54.902783999999997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <v>901.68450099999995</v>
+      </c>
+      <c r="L25">
+        <v>901.06602399999997</v>
+      </c>
+      <c r="M25">
+        <v>38.514688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15940F18-611E-B343-83C3-063D261F54BB}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,16 +1581,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -533,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,16 +1615,18 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>83.306055338999997</v>
-      </c>
-      <c r="D4">
-        <v>83.279943648725705</v>
+        <f>runs!$C4+runs!$G4</f>
+        <v>90.465824277999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>75.911168000000004</v>
+        <f>runs!$C4+runs!$K4</f>
+        <v>84.517844608999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,16 +1634,18 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>82.869916515</v>
-      </c>
-      <c r="D5">
-        <v>82.856391336768795</v>
+        <f>runs!$C5+runs!$G5</f>
+        <v>756.839187573</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>46.878720000000001</v>
+        <f>runs!$C5+runs!$K5</f>
+        <v>419.490098515</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,16 +1653,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>85.276020025999998</v>
-      </c>
-      <c r="D6">
-        <v>85.2561576254665</v>
+        <f>runs!$C6+runs!$G6</f>
+        <v>86.434134485000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>86.683647999999906</v>
+        <f>runs!$C6+runs!$K6</f>
+        <v>139.24567262599999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,16 +1672,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>83.220756042999994</v>
-      </c>
-      <c r="D7">
-        <v>83.308085199445401</v>
+        <f>runs!$C7+runs!$G7</f>
+        <v>150.97679062200001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>55.492607999999997</v>
+        <f>runs!$C7+runs!$K7</f>
+        <v>147.492316743</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,16 +1691,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>83.842513452999995</v>
-      </c>
-      <c r="D8">
-        <v>83.8520228378474</v>
+        <f>runs!$C8+runs!$G8</f>
+        <v>985.52279389099999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>79.011839999999907</v>
+        <f>runs!$C8+runs!$K8</f>
+        <v>985.42138445300009</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,16 +1710,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>81.724519185999995</v>
-      </c>
-      <c r="D9">
-        <v>81.715359594672904</v>
+        <f>runs!$C9+runs!$G9</f>
+        <v>422.23377391299999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>51.216383999999998</v>
+        <f>runs!$C9+runs!$K9</f>
+        <v>983.39959418599994</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,16 +1729,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>102.56402504</v>
-      </c>
-      <c r="D10">
-        <v>102.540047347545</v>
+        <f>runs!$C10+runs!$G10</f>
+        <v>1004.2482167620001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>32.202751999999997</v>
+        <f>runs!$C10+runs!$K10</f>
+        <v>1004.2402970400001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,16 +1748,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>83.845712913</v>
-      </c>
-      <c r="D11">
-        <v>83.834945268929005</v>
+        <f>runs!$C11+runs!$G11</f>
+        <v>985.42288802600001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>22.884352</v>
+        <f>runs!$C11+runs!$K11</f>
+        <v>985.52799491299993</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,16 +1767,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>102.575096788</v>
-      </c>
-      <c r="D12">
-        <v>102.57107852399299</v>
+        <f>runs!$C12+runs!$G12</f>
+        <v>1004.246532282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>28.307455999999998</v>
+        <f>runs!$C12+runs!$K12</f>
+        <v>1004.254336788</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,16 +1786,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>85.339170010999993</v>
-      </c>
-      <c r="D13">
-        <v>85.323136977851306</v>
+        <f>runs!$C13+runs!$G13</f>
+        <v>741.03161915299995</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>24.109055999999999</v>
+        <f>runs!$C13+runs!$K13</f>
+        <v>394.42028401100004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,16 +1805,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>62.498337405999997</v>
-      </c>
-      <c r="D14">
-        <v>62.5031681396067</v>
+        <f>runs!$C14+runs!$G14</f>
+        <v>964.17038358399998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>23.773184000000001</v>
+        <f>runs!$C14+runs!$K14</f>
+        <v>964.08073540600003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -731,16 +1824,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>80.683343082999997</v>
-      </c>
-      <c r="D15">
-        <v>80.667100049555302</v>
+        <f>runs!$C15+runs!$G15</f>
+        <v>102.840955768</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>24.924160000000001</v>
+        <f>runs!$C15+runs!$K15</f>
+        <v>855.42918908299998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,16 +1843,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>80.927348511000005</v>
-      </c>
-      <c r="D16">
-        <v>80.922835372388306</v>
+        <f>runs!$C16+runs!$G16</f>
+        <v>982.60487982899997</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>29.298687999999999</v>
+        <f>runs!$C16+runs!$K16</f>
+        <v>982.60770851099994</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,16 +1862,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>80.987938712000002</v>
-      </c>
-      <c r="D17">
-        <v>80.983025416731806</v>
+        <f>runs!$C17+runs!$G17</f>
+        <v>102.577069726</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>29.982719999999901</v>
+        <f>runs!$C17+runs!$K17</f>
+        <v>982.66458471199996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,16 +1881,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>81.119088599999998</v>
-      </c>
-      <c r="D18">
-        <v>81.110997717827502</v>
+        <f>runs!$C18+runs!$G18</f>
+        <v>982.69620468499988</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>26.9312</v>
+        <f>runs!$C18+runs!$K18</f>
+        <v>982.79798260000007</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,16 +1900,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>81.264221676999995</v>
-      </c>
-      <c r="D19">
-        <v>81.266983501613097</v>
+        <f>runs!$C19+runs!$G19</f>
+        <v>982.93850584400002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>26.656768</v>
+        <f>runs!$C19+runs!$K19</f>
+        <v>982.95250367699998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,16 +1919,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>81.415272294000005</v>
-      </c>
-      <c r="D20">
-        <v>81.398863218724699</v>
+        <f>runs!$C20+runs!$G20</f>
+        <v>983.08902695000006</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>26.525696</v>
+        <f>runs!$C20+runs!$K20</f>
+        <v>983.092790294</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,16 +1938,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>81.647702733000003</v>
-      </c>
-      <c r="D21">
-        <v>81.630904611200094</v>
+        <f>runs!$C21+runs!$G21</f>
+        <v>983.320167932</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>27.766783999999902</v>
+        <f>runs!$C21+runs!$K21</f>
+        <v>983.23247173300001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -850,16 +1957,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>81.756301664000006</v>
-      </c>
-      <c r="D22">
-        <v>81.750914931297302</v>
+        <f>runs!$C22+runs!$G22</f>
+        <v>983.42686471800005</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>39.686143999999999</v>
+        <f>runs!$C22+runs!$K22</f>
+        <v>983.43518966400006</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -867,16 +1976,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>81.956529023000002</v>
-      </c>
-      <c r="D23">
-        <v>81.942896004766197</v>
+        <f>runs!$C23+runs!$G23</f>
+        <v>983.63806619800005</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>26.402815999999898</v>
+        <f>runs!$C23+runs!$K23</f>
+        <v>983.63426502300001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -884,16 +1995,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>80.748274159000005</v>
-      </c>
-      <c r="D24">
-        <v>80.731342058628798</v>
+        <f>runs!$C24+runs!$G24</f>
+        <v>92.844708660000009</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
       </c>
       <c r="E24">
-        <v>50.229247999999998</v>
+        <f>runs!$C24+runs!$K24</f>
+        <v>100.77277795900001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,16 +2014,32 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>61.548551736</v>
-      </c>
-      <c r="D25">
-        <v>61.547368060797403</v>
+        <f>runs!$C25+runs!$G25</f>
+        <v>963.22530066299998</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>59.600895999999999</v>
+        <f>runs!$C25+runs!$K25</f>
+        <v>963.23305273599999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(B4:B25,"sat") + COUNTIF(B4:B25,"unsat")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44E35DE-5AA7-DF41-8614-CAF09925AB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C75FDD2-8BE0-2749-8046-D7A68E61F306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="42">
   <si>
     <t>tool</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>dCAQE 4.0.1</t>
+  </si>
+  <si>
+    <t>iProver v3.1 (CASC-27)</t>
+  </si>
+  <si>
+    <t>qbf-mode.SAT</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +522,7 @@
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +562,20 @@
       <c r="M1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -597,8 +615,20 @@
       <c r="M2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -638,8 +668,20 @@
       <c r="M3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -679,8 +721,20 @@
       <c r="M4">
         <v>9.6911360000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>38.647736219999999</v>
+      </c>
+      <c r="P4">
+        <v>38.671415712684301</v>
+      </c>
+      <c r="Q4">
+        <v>120.844287999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -720,8 +774,20 @@
       <c r="M5">
         <v>30.519296000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>564.51841155800003</v>
+      </c>
+      <c r="P5">
+        <v>564.13731784373499</v>
+      </c>
+      <c r="Q5">
+        <v>66.334719999999905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -761,8 +827,20 @@
       <c r="M6">
         <v>59.674624000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>199.26957538799999</v>
+      </c>
+      <c r="P6">
+        <v>199.18121008202399</v>
+      </c>
+      <c r="Q6">
+        <v>112.336896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -802,8 +880,20 @@
       <c r="M7">
         <v>25.497599999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>901.68943040500005</v>
+      </c>
+      <c r="P7">
+        <v>901.06485610827804</v>
+      </c>
+      <c r="Q7">
+        <v>100.306944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -843,8 +933,20 @@
       <c r="M8">
         <v>44.232703999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>901.684762761</v>
+      </c>
+      <c r="P8">
+        <v>901.065355155617</v>
+      </c>
+      <c r="Q8">
+        <v>46.534655999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -884,8 +986,20 @@
       <c r="M9">
         <v>35.92192</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9">
+        <v>901.68948187499996</v>
+      </c>
+      <c r="P9">
+        <v>901.03363374248102</v>
+      </c>
+      <c r="Q9">
+        <v>29.925376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -925,8 +1039,20 @@
       <c r="M10">
         <v>60.243968000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10">
+        <v>901.69269355200004</v>
+      </c>
+      <c r="P10">
+        <v>901.04896248877003</v>
+      </c>
+      <c r="Q10">
+        <v>32.018431999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -966,8 +1092,20 @@
       <c r="M11">
         <v>60.600320000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <v>901.59729099200001</v>
+      </c>
+      <c r="P11">
+        <v>901.04126202687598</v>
+      </c>
+      <c r="Q11">
+        <v>63.893504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1007,8 +1145,20 @@
       <c r="M12">
         <v>70.750208000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12">
+        <v>901.69452224500003</v>
+      </c>
+      <c r="P12">
+        <v>901.05768045782997</v>
+      </c>
+      <c r="Q12">
+        <v>42.356735999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1048,8 +1198,20 @@
       <c r="M13">
         <v>42.979328000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>901.68878475400004</v>
+      </c>
+      <c r="P13">
+        <v>901.04936884716096</v>
+      </c>
+      <c r="Q13">
+        <v>153.75564799999901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1089,8 +1251,20 @@
       <c r="M14">
         <v>53.170175999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14">
+        <v>901.68766515200002</v>
+      </c>
+      <c r="P14">
+        <v>901.049442827701</v>
+      </c>
+      <c r="Q14">
+        <v>48.336895999999903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1130,8 +1304,20 @@
       <c r="M15">
         <v>44.773375999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15">
+        <v>571.718645745</v>
+      </c>
+      <c r="P15">
+        <v>571.32172033190704</v>
+      </c>
+      <c r="Q15">
+        <v>139.03871999999899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1171,8 +1357,20 @@
       <c r="M16">
         <v>45.69088</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16">
+        <v>901.69762681700001</v>
+      </c>
+      <c r="P16">
+        <v>901.06158037111095</v>
+      </c>
+      <c r="Q16">
+        <v>87.478271999999905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1212,8 +1410,20 @@
       <c r="M17">
         <v>40.730623999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17">
+        <v>901.59552580299999</v>
+      </c>
+      <c r="P17">
+        <v>901.06164992228105</v>
+      </c>
+      <c r="Q17">
+        <v>93.892607999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1253,8 +1463,20 @@
       <c r="M18">
         <v>47.681536000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18">
+        <v>901.69126809099998</v>
+      </c>
+      <c r="P18">
+        <v>901.05094260722399</v>
+      </c>
+      <c r="Q18">
+        <v>30.445567999999898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1294,8 +1516,20 @@
       <c r="M19">
         <v>44.6464</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>901.69012872300004</v>
+      </c>
+      <c r="P19">
+        <v>901.06939081475105</v>
+      </c>
+      <c r="Q19">
+        <v>32.526336000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1335,8 +1569,20 @@
       <c r="M20">
         <v>44.613632000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20">
+        <v>901.69345665200001</v>
+      </c>
+      <c r="P20">
+        <v>901.04941850155501</v>
+      </c>
+      <c r="Q20">
+        <v>35.008511999999897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1376,8 +1622,20 @@
       <c r="M21">
         <v>49.192959999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21">
+        <v>901.69398287299998</v>
+      </c>
+      <c r="P21">
+        <v>901.04575139656595</v>
+      </c>
+      <c r="Q21">
+        <v>37.490687999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1417,8 +1675,20 @@
       <c r="M22">
         <v>56.262656</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22">
+        <v>901.69426082400003</v>
+      </c>
+      <c r="P22">
+        <v>901.04549301415602</v>
+      </c>
+      <c r="Q22">
+        <v>39.698431999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1458,8 +1728,20 @@
       <c r="M23">
         <v>51.912703999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23">
+        <v>901.58760404099996</v>
+      </c>
+      <c r="P23">
+        <v>901.06385182961799</v>
+      </c>
+      <c r="Q23">
+        <v>43.085823999999903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1499,8 +1781,20 @@
       <c r="M24">
         <v>13.918208</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24">
+        <v>901.68764801299994</v>
+      </c>
+      <c r="P24">
+        <v>901.05780038237504</v>
+      </c>
+      <c r="Q24">
+        <v>36.237311999999903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1539,6 +1833,18 @@
       </c>
       <c r="M25">
         <v>38.514688</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25">
+        <v>901.67430430800005</v>
+      </c>
+      <c r="P25">
+        <v>901.08178128674604</v>
+      </c>
+      <c r="Q25">
+        <v>59.908096</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15940F18-611E-B343-83C3-063D261F54BB}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1865,7 @@
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1575,8 +1881,14 @@
       <c r="E1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1592,8 +1904,14 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1609,8 +1927,14 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1628,8 +1952,15 @@
         <f>runs!$C4+runs!$K4</f>
         <v>84.517844608999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <f>runs!$C4+runs!$O4</f>
+        <v>121.953791559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1647,8 +1978,15 @@
         <f>runs!$C5+runs!$K5</f>
         <v>419.490098515</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f>runs!$C5+runs!$O5</f>
+        <v>647.38832807300003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1666,8 +2004,15 @@
         <f>runs!$C6+runs!$K6</f>
         <v>139.24567262599999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <f>runs!$C6+runs!$O6</f>
+        <v>284.54559541399999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1685,8 +2030,15 @@
         <f>runs!$C7+runs!$K7</f>
         <v>147.492316743</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <f>runs!$C7+runs!$O7</f>
+        <v>984.9101864480001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1704,8 +2056,15 @@
         <f>runs!$C8+runs!$K8</f>
         <v>985.42138445300009</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <f>runs!$C8+runs!$O8</f>
+        <v>985.52727621400004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1723,8 +2082,15 @@
         <f>runs!$C9+runs!$K9</f>
         <v>983.39959418599994</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <f>runs!$C9+runs!$O9</f>
+        <v>983.41400106099991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1742,8 +2108,15 @@
         <f>runs!$C10+runs!$K10</f>
         <v>1004.2402970400001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <f>runs!$C10+runs!$O10</f>
+        <v>1004.2567185920001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1761,8 +2134,15 @@
         <f>runs!$C11+runs!$K11</f>
         <v>985.52799491299993</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <f>runs!$C11+runs!$O11</f>
+        <v>985.44300390500007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1780,8 +2160,15 @@
         <f>runs!$C12+runs!$K12</f>
         <v>1004.254336788</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <f>runs!$C12+runs!$O12</f>
+        <v>1004.269619033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1799,8 +2186,15 @@
         <f>runs!$C13+runs!$K13</f>
         <v>394.42028401100004</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <f>runs!$C13+runs!$O13</f>
+        <v>987.027954765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1818,8 +2212,15 @@
         <f>runs!$C14+runs!$K14</f>
         <v>964.08073540600003</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <f>runs!$C14+runs!$O14</f>
+        <v>964.18600255800004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1837,8 +2238,15 @@
         <f>runs!$C15+runs!$K15</f>
         <v>855.42918908299998</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <f>runs!$C15+runs!$O15</f>
+        <v>652.40198882799996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1856,8 +2264,15 @@
         <f>runs!$C16+runs!$K16</f>
         <v>982.60770851099994</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <f>runs!$C16+runs!$O16</f>
+        <v>982.624975328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +2290,15 @@
         <f>runs!$C17+runs!$K17</f>
         <v>982.66458471199996</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <f>runs!$C17+runs!$O17</f>
+        <v>982.58346451499995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1894,8 +2316,15 @@
         <f>runs!$C18+runs!$K18</f>
         <v>982.79798260000007</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <f>runs!$C18+runs!$O18</f>
+        <v>982.81035669099992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1913,8 +2342,15 @@
         <f>runs!$C19+runs!$K19</f>
         <v>982.95250367699998</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <f>runs!$C19+runs!$O19</f>
+        <v>982.95435040000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1932,8 +2368,15 @@
         <f>runs!$C20+runs!$K20</f>
         <v>983.092790294</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <f>runs!$C20+runs!$O20</f>
+        <v>983.10872894600004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1951,8 +2394,15 @@
         <f>runs!$C21+runs!$K21</f>
         <v>983.23247173300001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <f>runs!$C21+runs!$O21</f>
+        <v>983.34168560599994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1970,8 +2420,15 @@
         <f>runs!$C22+runs!$K22</f>
         <v>983.43518966400006</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <f>runs!$C22+runs!$O22</f>
+        <v>983.45056248800006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1989,8 +2446,15 @@
         <f>runs!$C23+runs!$K23</f>
         <v>983.63426502300001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <f>runs!$C23+runs!$O23</f>
+        <v>983.54413306399999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2008,8 +2472,15 @@
         <f>runs!$C24+runs!$K24</f>
         <v>100.77277795900001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <f>runs!$C24+runs!$O24</f>
+        <v>982.43592217199989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2027,8 +2498,15 @@
         <f>runs!$C25+runs!$K25</f>
         <v>963.23305273599999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <f>runs!$C25+runs!$O25</f>
+        <v>963.22285604400008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2036,10 +2514,24 @@
         <f>COUNTIF(B4:B25,"sat") + COUNTIF(B4:B25,"unsat")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>COUNTIF(D4:D25,"sat") + COUNTIF(D4:D25,"unsat")</f>
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(F4:F25,"sat") + COUNTIF(F4:F25,"unsat")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C75FDD2-8BE0-2749-8046-D7A68E61F306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2697AF-99BE-EB46-A6FB-448F3987E209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="44">
   <si>
     <t>tool</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>qbf-mode.SAT</t>
+  </si>
+  <si>
+    <t>HQS 2</t>
+  </si>
+  <si>
+    <t>Preprocessor solved</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +528,7 @@
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +580,23 @@
       <c r="Q1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -627,8 +648,23 @@
       <c r="Q2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -680,8 +716,23 @@
       <c r="Q3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -733,8 +784,23 @@
       <c r="Q4">
         <v>120.844287999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4">
+        <v>98.083245692000006</v>
+      </c>
+      <c r="T4">
+        <v>98.046638142317505</v>
+      </c>
+      <c r="U4">
+        <v>75.771903999999907</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -786,8 +852,23 @@
       <c r="Q5">
         <v>66.334719999999905</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5">
+        <v>901.67879634200006</v>
+      </c>
+      <c r="T5">
+        <v>901.06276445090703</v>
+      </c>
+      <c r="U5">
+        <v>130.40025599999899</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -839,8 +920,23 @@
       <c r="Q6">
         <v>112.336896</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6">
+        <v>88.527609963000003</v>
+      </c>
+      <c r="T6">
+        <v>88.494428850710307</v>
+      </c>
+      <c r="U6">
+        <v>86.634495999999999</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -892,8 +988,23 @@
       <c r="Q7">
         <v>100.306944</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7">
+        <v>901.68278576900002</v>
+      </c>
+      <c r="T7">
+        <v>901.05539396777704</v>
+      </c>
+      <c r="U7">
+        <v>180.883456</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -945,8 +1056,23 @@
       <c r="Q8">
         <v>46.534655999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8">
+        <v>901.68074223099995</v>
+      </c>
+      <c r="T8">
+        <v>901.03797323629203</v>
+      </c>
+      <c r="U8">
+        <v>94.834688</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -998,8 +1124,23 @@
       <c r="Q9">
         <v>29.925376</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9">
+        <v>305.434800419</v>
+      </c>
+      <c r="T9">
+        <v>305.24171555787302</v>
+      </c>
+      <c r="U9">
+        <v>50.941952000000001</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1051,8 +1192,23 @@
       <c r="Q10">
         <v>32.018431999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10">
+        <v>901.67739780800002</v>
+      </c>
+      <c r="T10">
+        <v>901.08175523579098</v>
+      </c>
+      <c r="U10">
+        <v>59.981823999999897</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1104,8 +1260,23 @@
       <c r="Q11">
         <v>63.893504</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11">
+        <v>901.69298548200004</v>
+      </c>
+      <c r="T11">
+        <v>901.06522100418795</v>
+      </c>
+      <c r="U11">
+        <v>128.24166399999999</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1157,8 +1328,23 @@
       <c r="Q12">
         <v>42.356735999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12">
+        <v>901.57772031900004</v>
+      </c>
+      <c r="T12">
+        <v>901.04533575847699</v>
+      </c>
+      <c r="U12">
+        <v>80.662527999999995</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1210,8 +1396,23 @@
       <c r="Q13">
         <v>153.75564799999901</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13">
+        <v>901.70001130200001</v>
+      </c>
+      <c r="T13">
+        <v>901.07127040624596</v>
+      </c>
+      <c r="U13">
+        <v>424.55859199999998</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1263,8 +1464,23 @@
       <c r="Q14">
         <v>48.336895999999903</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14">
+        <v>901.96167575899995</v>
+      </c>
+      <c r="T14">
+        <v>901.33776099979798</v>
+      </c>
+      <c r="U14">
+        <v>29.143039999999999</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1316,8 +1532,23 @@
       <c r="Q15">
         <v>139.03871999999899</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15">
+        <v>434.52955817700001</v>
+      </c>
+      <c r="T15">
+        <v>434.24977419897903</v>
+      </c>
+      <c r="U15">
+        <v>28.778495999999901</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1369,8 +1600,23 @@
       <c r="Q16">
         <v>87.478271999999905</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16">
+        <v>743.59598833200005</v>
+      </c>
+      <c r="T16">
+        <v>743.09797584265402</v>
+      </c>
+      <c r="U16">
+        <v>43.839487999999903</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1422,8 +1668,23 @@
       <c r="Q17">
         <v>93.892607999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17">
+        <v>901.68491660100005</v>
+      </c>
+      <c r="T17">
+        <v>901.057772167027</v>
+      </c>
+      <c r="U17">
+        <v>52.215807999999903</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1475,8 +1736,23 @@
       <c r="Q18">
         <v>30.445567999999898</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18">
+        <v>811.51708002999999</v>
+      </c>
+      <c r="T18">
+        <v>810.96187942102495</v>
+      </c>
+      <c r="U18">
+        <v>40.472575999999997</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1804,23 @@
       <c r="Q19">
         <v>32.526336000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19">
+        <v>901.58000656599995</v>
+      </c>
+      <c r="T19">
+        <v>901.06526537612001</v>
+      </c>
+      <c r="U19">
+        <v>60.133375999999998</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1581,8 +1872,23 @@
       <c r="Q20">
         <v>35.008511999999897</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20">
+        <v>901.69117280199998</v>
+      </c>
+      <c r="T20">
+        <v>901.08177033439199</v>
+      </c>
+      <c r="U20">
+        <v>58.875903999999998</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1634,8 +1940,23 @@
       <c r="Q21">
         <v>37.490687999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21">
+        <v>901.69667481800002</v>
+      </c>
+      <c r="T21">
+        <v>901.21683991327802</v>
+      </c>
+      <c r="U21">
+        <v>82.202624</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1687,8 +2008,23 @@
       <c r="Q22">
         <v>39.698431999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22">
+        <v>901.67631962799999</v>
+      </c>
+      <c r="T22">
+        <v>901.04544696211804</v>
+      </c>
+      <c r="U22">
+        <v>64.417791999999906</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1740,8 +2076,23 @@
       <c r="Q23">
         <v>43.085823999999903</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23">
+        <v>901.679894322</v>
+      </c>
+      <c r="T23">
+        <v>901.04939103126503</v>
+      </c>
+      <c r="U23">
+        <v>69.169151999999997</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1793,8 +2144,23 @@
       <c r="Q24">
         <v>36.237311999999903</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24">
+        <v>549.02354780500002</v>
+      </c>
+      <c r="T24">
+        <v>548.65763647854305</v>
+      </c>
+      <c r="U24">
+        <v>50.323456</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1845,6 +2211,21 @@
       </c>
       <c r="Q25">
         <v>59.908096</v>
+      </c>
+      <c r="R25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25">
+        <v>901.55535977700004</v>
+      </c>
+      <c r="T25">
+        <v>901.04602446034505</v>
+      </c>
+      <c r="U25">
+        <v>59.600895999999999</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1854,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15940F18-611E-B343-83C3-063D261F54BB}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,7 +2246,7 @@
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1887,8 +2268,14 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1910,8 +2297,14 @@
       <c r="G2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1933,8 +2326,14 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1959,8 +2358,14 @@
         <f>runs!$C4+runs!$O4</f>
         <v>121.953791559</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>98.083245692000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1985,8 +2390,14 @@
         <f>runs!$C5+runs!$O5</f>
         <v>647.38832807300003</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>901.67879634200006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2011,8 +2422,14 @@
         <f>runs!$C6+runs!$O6</f>
         <v>284.54559541399999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>88.527609963000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2037,8 +2454,14 @@
         <f>runs!$C7+runs!$O7</f>
         <v>984.9101864480001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>901.68278576900002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2063,8 +2486,14 @@
         <f>runs!$C8+runs!$O8</f>
         <v>985.52727621400004</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>901.68074223099995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2089,8 +2518,14 @@
         <f>runs!$C9+runs!$O9</f>
         <v>983.41400106099991</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>305.434800419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2115,8 +2550,14 @@
         <f>runs!$C10+runs!$O10</f>
         <v>1004.2567185920001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>901.67739780800002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2141,8 +2582,14 @@
         <f>runs!$C11+runs!$O11</f>
         <v>985.44300390500007</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>901.69298548200004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2167,8 +2614,14 @@
         <f>runs!$C12+runs!$O12</f>
         <v>1004.269619033</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>901.57772031900004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2193,8 +2646,14 @@
         <f>runs!$C13+runs!$O13</f>
         <v>987.027954765</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>901.70001130200001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2219,8 +2678,14 @@
         <f>runs!$C14+runs!$O14</f>
         <v>964.18600255800004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>901.96167575899995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2245,8 +2710,14 @@
         <f>runs!$C15+runs!$O15</f>
         <v>652.40198882799996</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>434.52955817700001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2271,8 +2742,14 @@
         <f>runs!$C16+runs!$O16</f>
         <v>982.624975328</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>743.59598833200005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2297,8 +2774,14 @@
         <f>runs!$C17+runs!$O17</f>
         <v>982.58346451499995</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17">
+        <v>901.68491660100005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2323,8 +2806,14 @@
         <f>runs!$C18+runs!$O18</f>
         <v>982.81035669099992</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>811.51708002999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2349,8 +2838,14 @@
         <f>runs!$C19+runs!$O19</f>
         <v>982.95435040000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19">
+        <v>901.58000656599995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2375,8 +2870,14 @@
         <f>runs!$C20+runs!$O20</f>
         <v>983.10872894600004</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>901.69117280199998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2401,8 +2902,14 @@
         <f>runs!$C21+runs!$O21</f>
         <v>983.34168560599994</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>901.69667481800002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2427,8 +2934,14 @@
         <f>runs!$C22+runs!$O22</f>
         <v>983.45056248800006</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22">
+        <v>901.67631962799999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2453,8 +2966,14 @@
         <f>runs!$C23+runs!$O23</f>
         <v>983.54413306399999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>901.679894322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2479,8 +2998,14 @@
         <f>runs!$C24+runs!$O24</f>
         <v>982.43592217199989</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>549.02354780500002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2505,8 +3030,14 @@
         <f>runs!$C25+runs!$O25</f>
         <v>963.22285604400008</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <v>901.55535977700004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2522,8 +3053,12 @@
         <f>COUNTIF(F4:F25,"sat") + COUNTIF(F4:F25,"unsat")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f>COUNTIF(H4:H25,"sat") + COUNTIF(H4:H25,"unsat")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>

--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2697AF-99BE-EB46-A6FB-448F3987E209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD95637-7E4C-AB49-817C-8FF322016941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="runs" sheetId="1" r:id="rId1"/>
     <sheet name="realtime" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">realtime!$A$1:$K$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="52">
   <si>
     <t>tool</t>
   </si>
@@ -147,9 +150,6 @@
     <t>TIMEOUT</t>
   </si>
   <si>
-    <t>solved</t>
-  </si>
-  <si>
     <t>uniquely solved</t>
   </si>
   <si>
@@ -166,6 +166,33 @@
   </si>
   <si>
     <t>Preprocessor solved</t>
+  </si>
+  <si>
+    <t>DQBDD 1.1</t>
+  </si>
+  <si>
+    <t>tree-simpleelimination-atbeginning.SAT</t>
+  </si>
+  <si>
+    <t>OUT OF MEMORY</t>
+  </si>
+  <si>
+    <t>solved (count/timesum)</t>
+  </si>
+  <si>
+    <t>unsat (count/timesum)</t>
+  </si>
+  <si>
+    <t>sat (count/timesum)</t>
+  </si>
+  <si>
+    <t>out of memory</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -517,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +555,7 @@
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,46 +584,61 @@
         <v>32</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -637,16 +679,16 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
@@ -663,8 +705,23 @@
       <c r="V2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -729,10 +786,25 @@
         <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -799,8 +871,23 @@
       <c r="V4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4">
+        <v>901.68752353000002</v>
+      </c>
+      <c r="Y4">
+        <v>901.04892335459499</v>
+      </c>
+      <c r="Z4">
+        <v>254.918656</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -867,8 +954,23 @@
       <c r="V5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5">
+        <v>901.68960319099995</v>
+      </c>
+      <c r="Y5">
+        <v>901.09489998221397</v>
+      </c>
+      <c r="Z5">
+        <v>195.76012799999901</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -935,8 +1037,23 @@
       <c r="V6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6">
+        <v>901.67721245400003</v>
+      </c>
+      <c r="Y6">
+        <v>901.04754213616195</v>
+      </c>
+      <c r="Z6">
+        <v>192.626688</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1003,8 +1120,23 @@
       <c r="V7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7">
+        <v>901.59191515400005</v>
+      </c>
+      <c r="Y7">
+        <v>901.09401980414896</v>
+      </c>
+      <c r="Z7">
+        <v>236.89215999999999</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1071,8 +1203,23 @@
       <c r="V8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8">
+        <v>901.69223948199999</v>
+      </c>
+      <c r="Y8">
+        <v>901.05139235779598</v>
+      </c>
+      <c r="Z8">
+        <v>199.876608</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1139,8 +1286,23 @@
       <c r="V9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9">
+        <v>901.70783484900005</v>
+      </c>
+      <c r="Y9">
+        <v>901.09531424939598</v>
+      </c>
+      <c r="Z9">
+        <v>187.711488</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1207,8 +1369,23 @@
       <c r="V10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10">
+        <v>901.68435881200003</v>
+      </c>
+      <c r="Y10">
+        <v>901.06347502022902</v>
+      </c>
+      <c r="Z10">
+        <v>234.20927999999901</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1275,8 +1452,23 @@
       <c r="V11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11">
+        <v>901.72287170499999</v>
+      </c>
+      <c r="Y11">
+        <v>901.06606987863699</v>
+      </c>
+      <c r="Z11">
+        <v>281.33375999999998</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1343,8 +1535,23 @@
       <c r="V12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12">
+        <v>901.67789361099994</v>
+      </c>
+      <c r="Y12">
+        <v>901.08051946014098</v>
+      </c>
+      <c r="Z12">
+        <v>229.18758399999999</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1411,8 +1618,23 @@
       <c r="V13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13">
+        <v>901.58992234699997</v>
+      </c>
+      <c r="Y13">
+        <v>901.065912023186</v>
+      </c>
+      <c r="Z13">
+        <v>254.406656</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1479,8 +1701,23 @@
       <c r="V14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14">
+        <v>100.23334106199999</v>
+      </c>
+      <c r="Y14">
+        <v>100.203733474016</v>
+      </c>
+      <c r="Z14">
+        <v>4000.0020479999998</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1547,8 +1784,23 @@
       <c r="V15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15">
+        <v>901.68927400400003</v>
+      </c>
+      <c r="Y15">
+        <v>901.08316004648805</v>
+      </c>
+      <c r="Z15">
+        <v>296.95590399999998</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1615,8 +1867,23 @@
       <c r="V16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16">
+        <v>901.68209472700005</v>
+      </c>
+      <c r="Y16">
+        <v>901.055212531238</v>
+      </c>
+      <c r="Z16">
+        <v>221.954048</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1683,8 +1950,23 @@
       <c r="V17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17">
+        <v>901.69477151900003</v>
+      </c>
+      <c r="Y17">
+        <v>901.21268440410495</v>
+      </c>
+      <c r="Z17">
+        <v>250.47859199999999</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1751,8 +2033,23 @@
       <c r="V18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18">
+        <v>901.67485828500003</v>
+      </c>
+      <c r="Y18">
+        <v>901.07650689780701</v>
+      </c>
+      <c r="Z18">
+        <v>221.3888</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1819,8 +2116,23 @@
       <c r="V19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19">
+        <v>901.58268729899999</v>
+      </c>
+      <c r="Y19">
+        <v>901.08211042359403</v>
+      </c>
+      <c r="Z19">
+        <v>245.27667199999999</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1887,8 +2199,23 @@
       <c r="V20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20">
+        <v>901.68978389999995</v>
+      </c>
+      <c r="Y20">
+        <v>901.08215975016299</v>
+      </c>
+      <c r="Z20">
+        <v>181.44460799999999</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1955,8 +2282,23 @@
       <c r="V21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21">
+        <v>901.68064061300004</v>
+      </c>
+      <c r="Y21">
+        <v>901.06712969392504</v>
+      </c>
+      <c r="Z21">
+        <v>241.07007999999999</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2023,8 +2365,23 @@
       <c r="V22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22">
+        <v>901.68176643000004</v>
+      </c>
+      <c r="Y22">
+        <v>901.06753355637102</v>
+      </c>
+      <c r="Z22">
+        <v>229.75692799999999</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2091,8 +2448,23 @@
       <c r="V23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23">
+        <v>901.69052446000001</v>
+      </c>
+      <c r="Y23">
+        <v>901.06062998622599</v>
+      </c>
+      <c r="Z23">
+        <v>213.22137599999999</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2159,8 +2531,23 @@
       <c r="V24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24">
+        <v>122.45577283</v>
+      </c>
+      <c r="Y24">
+        <v>122.39940483495501</v>
+      </c>
+      <c r="Z24">
+        <v>4000.0020479999998</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2225,6 +2612,21 @@
         <v>59.600895999999999</v>
       </c>
       <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25">
+        <v>101.845925041</v>
+      </c>
+      <c r="Y25">
+        <v>101.861748557537</v>
+      </c>
+      <c r="Z25">
+        <v>4000.0020479999998</v>
+      </c>
+      <c r="AA25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2235,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15940F18-611E-B343-83C3-063D261F54BB}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2246,7 +2648,7 @@
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2257,25 +2659,31 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2292,10 +2700,10 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -2303,8 +2711,14 @@
       <c r="I2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2332,8 +2746,14 @@
       <c r="I3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2364,8 +2784,14 @@
       <c r="I4">
         <v>98.083245692000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>901.68752353000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2396,8 +2822,14 @@
       <c r="I5">
         <v>901.67879634200006</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>901.68960319099995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2428,8 +2860,14 @@
       <c r="I6">
         <v>88.527609963000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>901.67721245400003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2460,8 +2898,14 @@
       <c r="I7">
         <v>901.68278576900002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>901.59191515400005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2492,8 +2936,14 @@
       <c r="I8">
         <v>901.68074223099995</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>901.69223948199999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2524,8 +2974,14 @@
       <c r="I9">
         <v>305.434800419</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>901.70783484900005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2556,8 +3012,14 @@
       <c r="I10">
         <v>901.67739780800002</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>901.68435881200003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2588,8 +3050,14 @@
       <c r="I11">
         <v>901.69298548200004</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>901.72287170499999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2620,8 +3088,14 @@
       <c r="I12">
         <v>901.57772031900004</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>901.67789361099994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2652,8 +3126,14 @@
       <c r="I13">
         <v>901.70001130200001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>901.58992234699997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2684,8 +3164,14 @@
       <c r="I14">
         <v>901.96167575899995</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>100.23334106199999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2716,8 +3202,14 @@
       <c r="I15">
         <v>434.52955817700001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>901.68927400400003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2748,8 +3240,14 @@
       <c r="I16">
         <v>743.59598833200005</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>901.68209472700005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2780,8 +3278,14 @@
       <c r="I17">
         <v>901.68491660100005</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>901.69477151900003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2812,8 +3316,14 @@
       <c r="I18">
         <v>811.51708002999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>901.67485828500003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2844,8 +3354,14 @@
       <c r="I19">
         <v>901.58000656599995</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>901.58268729899999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2876,8 +3392,14 @@
       <c r="I20">
         <v>901.69117280199998</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>901.68978389999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2908,8 +3430,14 @@
       <c r="I21">
         <v>901.69667481800002</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>901.68064061300004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2940,8 +3468,14 @@
       <c r="I22">
         <v>901.67631962799999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>901.68176643000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2972,8 +3506,14 @@
       <c r="I23">
         <v>901.679894322</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>901.69052446000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3004,8 +3544,14 @@
       <c r="I24">
         <v>549.02354780500002</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>122.45577283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3036,40 +3582,245 @@
       <c r="I25">
         <v>901.55535977700004</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>101.845925041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(B$4:B$25,"sat")</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f xml:space="preserve"> SUMIF(B$4:B$25, "sat",C$4:C$25)</f>
+        <v>382.31798425699998</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIF(D$4:D$25,"sat")</f>
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f xml:space="preserve"> SUMIF(D$4:D$25, "sat",E$4:E$25)</f>
+        <v>1079.1927063180001</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(F$4:F$25,"sat")</f>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f xml:space="preserve"> SUMIF(F$4:F$25, "sat",G$4:G$25)</f>
+        <v>1058.9013758010001</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIF(H$4:H$25,"sat")</f>
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> SUMIF(H$4:H$25, "sat",I$4:I$25)</f>
+        <v>2176.2534821939998</v>
+      </c>
+      <c r="J27">
+        <f>COUNTIF(J$4:J$25,"sat")</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f xml:space="preserve"> SUMIF(J$4:J$25, "sat",K$4:K$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(B$4:B$25,"unsat")</f>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f xml:space="preserve"> SUMIF(B$4:B$25, "unsat",C$4:C$25)</f>
+        <v>2163.9260799210001</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF(D$4:D$25,"unsat")</f>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f xml:space="preserve"> SUMIF(D$4:D$25, "unsat",E$4:E$25)</f>
+        <v>1062.1754772280001</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF(F$4:F$25,"unsat")</f>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> SUMIF(F$4:F$25, "unsat",G$4:G$25)</f>
+        <v>647.38832807300003</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIF(H$4:H$25,"unsat")</f>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> SUMIF(H$4:H$25, "unsat",I$4:I$25)</f>
+        <v>854.45834822400002</v>
+      </c>
+      <c r="J28">
+        <f>COUNTIF(J$4:J$25,"unsat")</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> SUMIF(J$4:J$25, "unsat",K$4:K$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(B$4:B$25,"sat") + COUNTIF(B$4:B$25,"unsat")</f>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f xml:space="preserve"> SUMIF(B$4:B$25, "sat",C$4:C$25)+ SUMIF(B$4:B$25, "unsat",C$4:C$25)</f>
+        <v>2546.2440641779999</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(D$4:D$25,"sat") + COUNTIF(D$4:D$25,"unsat")</f>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f xml:space="preserve"> SUMIF(D$4:D$25, "sat",E$4:E$25)+ SUMIF(D$4:D$25, "unsat",E$4:E$25)</f>
+        <v>2141.3681835460002</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(F$4:F$25,"sat") + COUNTIF(F$4:F$25,"unsat")</f>
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <f xml:space="preserve"> SUMIF(F$4:F$25, "sat",G$4:G$25)+ SUMIF(F$4:F$25, "unsat",G$4:G$25)</f>
+        <v>1706.2897038740002</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIF(H$4:H$25,"sat") + COUNTIF(H$4:H$25,"unsat")</f>
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> SUMIF(H$4:H$25, "sat",I$4:I$25)+ SUMIF(H$4:H$25, "unsat",I$4:I$25)</f>
+        <v>3030.7118304179999</v>
+      </c>
+      <c r="J29">
+        <f>COUNTIF(J$4:J$25,"sat") + COUNTIF(J$4:J$25,"unsat")</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f xml:space="preserve"> SUMIF(J$4:J$25, "sat",K$4:K$25)+ SUMIF(J$4:J$25, "unsat",K$4:K$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
-        <f>COUNTIF(B4:B25,"sat") + COUNTIF(B4:B25,"unsat")</f>
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <f>COUNTIF(D4:D25,"sat") + COUNTIF(D4:D25,"unsat")</f>
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <f>COUNTIF(F4:F25,"sat") + COUNTIF(F4:F25,"unsat")</f>
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <f>COUNTIF(H4:H25,"sat") + COUNTIF(H4:H25,"unsat")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(B$4:B$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIF(D$4:D$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(F$4:F$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF(H$4:H$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIF(J$4:J$25,"OUT OF MEMORY")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(B$4:B$25,"TIMEOUT")</f>
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(D$4:D$25,"TIMEOUT")</f>
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(F$4:F$25,"TIMEOUT")</f>
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIF(H$4:H$25,"TIMEOUT")</f>
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <f>COUNTIF(J$4:J$25,"TIMEOUT")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <f>22-B29-B31-B32</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>22-D29-D31-D32</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>22-F29-F31-F32</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>22-H29-H31-H32</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>22-J29-J31-J32</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K25" xr:uid="{7BA85B73-FD3C-5048-9A1A-966612B6D032}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD95637-7E4C-AB49-817C-8FF322016941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6BA9A-7695-EE41-B10F-8E282F290F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="53">
   <si>
     <t>tool</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>qbf-mode-noproofreconstruction.SAT</t>
   </si>
 </sst>
 </file>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,16 +682,16 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
@@ -848,10 +851,10 @@
         <v>34</v>
       </c>
       <c r="O4">
-        <v>38.647736219999999</v>
+        <v>38.873337665000001</v>
       </c>
       <c r="P4">
-        <v>38.671415712684301</v>
+        <v>38.877165973186401</v>
       </c>
       <c r="Q4">
         <v>120.844287999999</v>
@@ -931,13 +934,13 @@
         <v>35</v>
       </c>
       <c r="O5">
-        <v>564.51841155800003</v>
+        <v>210.39101399399999</v>
       </c>
       <c r="P5">
-        <v>564.13731784373499</v>
+        <v>210.26516573130999</v>
       </c>
       <c r="Q5">
-        <v>66.334719999999905</v>
+        <v>36.704256000000001</v>
       </c>
       <c r="R5" t="s">
         <v>36</v>
@@ -1014,13 +1017,13 @@
         <v>34</v>
       </c>
       <c r="O6">
-        <v>199.26957538799999</v>
+        <v>198.09790560499999</v>
       </c>
       <c r="P6">
-        <v>199.18121008202399</v>
+        <v>198.008979242295</v>
       </c>
       <c r="Q6">
-        <v>112.336896</v>
+        <v>112.332799999999</v>
       </c>
       <c r="R6" t="s">
         <v>34</v>
@@ -1094,16 +1097,16 @@
         <v>25.497599999999998</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7">
-        <v>901.68943040500005</v>
+        <v>341.41489188700001</v>
       </c>
       <c r="P7">
-        <v>901.06485610827804</v>
+        <v>341.19318745285199</v>
       </c>
       <c r="Q7">
-        <v>100.306944</v>
+        <v>39.297024</v>
       </c>
       <c r="R7" t="s">
         <v>36</v>
@@ -1180,10 +1183,10 @@
         <v>36</v>
       </c>
       <c r="O8">
-        <v>901.684762761</v>
+        <v>901.69190069199999</v>
       </c>
       <c r="P8">
-        <v>901.065355155617</v>
+        <v>901.06110102310697</v>
       </c>
       <c r="Q8">
         <v>46.534655999999998</v>
@@ -1260,16 +1263,16 @@
         <v>35.92192</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9">
-        <v>901.68948187499996</v>
+        <v>364.90279952600002</v>
       </c>
       <c r="P9">
-        <v>901.03363374248102</v>
+        <v>364.66176222264698</v>
       </c>
       <c r="Q9">
-        <v>29.925376</v>
+        <v>22.990848</v>
       </c>
       <c r="R9" t="s">
         <v>35</v>
@@ -1346,13 +1349,13 @@
         <v>36</v>
       </c>
       <c r="O10">
-        <v>901.69269355200004</v>
+        <v>901.59020197200005</v>
       </c>
       <c r="P10">
-        <v>901.04896248877003</v>
+        <v>901.04938426241199</v>
       </c>
       <c r="Q10">
-        <v>32.018431999999997</v>
+        <v>32.014336</v>
       </c>
       <c r="R10" t="s">
         <v>36</v>
@@ -1429,13 +1432,13 @@
         <v>36</v>
       </c>
       <c r="O11">
-        <v>901.59729099200001</v>
+        <v>901.69378331799999</v>
       </c>
       <c r="P11">
-        <v>901.04126202687598</v>
+        <v>901.06163898110299</v>
       </c>
       <c r="Q11">
-        <v>63.893504</v>
+        <v>64.020479999999907</v>
       </c>
       <c r="R11" t="s">
         <v>36</v>
@@ -1512,13 +1515,13 @@
         <v>36</v>
       </c>
       <c r="O12">
-        <v>901.69452224500003</v>
+        <v>901.69429098000001</v>
       </c>
       <c r="P12">
-        <v>901.05768045782997</v>
+        <v>901.06575049832395</v>
       </c>
       <c r="Q12">
-        <v>42.356735999999998</v>
+        <v>42.352640000000001</v>
       </c>
       <c r="R12" t="s">
         <v>36</v>
@@ -1592,16 +1595,16 @@
         <v>42.979328000000002</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13">
-        <v>901.68878475400004</v>
+        <v>290.70346587900002</v>
       </c>
       <c r="P13">
-        <v>901.04936884716096</v>
+        <v>290.53796089067998</v>
       </c>
       <c r="Q13">
-        <v>153.75564799999901</v>
+        <v>47.423487999999999</v>
       </c>
       <c r="R13" t="s">
         <v>36</v>
@@ -1678,10 +1681,10 @@
         <v>36</v>
       </c>
       <c r="O14">
-        <v>901.68766515200002</v>
+        <v>901.69147759500004</v>
       </c>
       <c r="P14">
-        <v>901.049442827701</v>
+        <v>901.06580974906603</v>
       </c>
       <c r="Q14">
         <v>48.336895999999903</v>
@@ -1761,10 +1764,10 @@
         <v>34</v>
       </c>
       <c r="O15">
-        <v>571.718645745</v>
+        <v>570.91204480299996</v>
       </c>
       <c r="P15">
-        <v>571.32172033190704</v>
+        <v>570.50507144629898</v>
       </c>
       <c r="Q15">
         <v>139.03871999999899</v>
@@ -1844,10 +1847,10 @@
         <v>36</v>
       </c>
       <c r="O16">
-        <v>901.69762681700001</v>
+        <v>901.69746372500003</v>
       </c>
       <c r="P16">
-        <v>901.06158037111095</v>
+        <v>901.08165337145294</v>
       </c>
       <c r="Q16">
         <v>87.478271999999905</v>
@@ -1927,13 +1930,13 @@
         <v>36</v>
       </c>
       <c r="O17">
-        <v>901.59552580299999</v>
+        <v>901.593336357</v>
       </c>
       <c r="P17">
-        <v>901.06164992228105</v>
+        <v>901.04965047910798</v>
       </c>
       <c r="Q17">
-        <v>93.892607999999996</v>
+        <v>93.888511999999906</v>
       </c>
       <c r="R17" t="s">
         <v>36</v>
@@ -2010,13 +2013,13 @@
         <v>36</v>
       </c>
       <c r="O18">
-        <v>901.69126809099998</v>
+        <v>901.69411709600001</v>
       </c>
       <c r="P18">
-        <v>901.05094260722399</v>
+        <v>901.08165212720598</v>
       </c>
       <c r="Q18">
-        <v>30.445567999999898</v>
+        <v>30.441471999999901</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
@@ -2093,13 +2096,13 @@
         <v>36</v>
       </c>
       <c r="O19">
-        <v>901.69012872300004</v>
+        <v>901.69445660400004</v>
       </c>
       <c r="P19">
-        <v>901.06939081475105</v>
+        <v>901.04966185241904</v>
       </c>
       <c r="Q19">
-        <v>32.526336000000001</v>
+        <v>32.522239999999996</v>
       </c>
       <c r="R19" t="s">
         <v>36</v>
@@ -2176,10 +2179,10 @@
         <v>36</v>
       </c>
       <c r="O20">
-        <v>901.69345665200001</v>
+        <v>901.69414579700003</v>
       </c>
       <c r="P20">
-        <v>901.04941850155501</v>
+        <v>901.08171526342596</v>
       </c>
       <c r="Q20">
         <v>35.008511999999897</v>
@@ -2259,10 +2262,10 @@
         <v>36</v>
       </c>
       <c r="O21">
-        <v>901.69398287299998</v>
+        <v>901.68949501400004</v>
       </c>
       <c r="P21">
-        <v>901.04575139656595</v>
+        <v>901.04978442564595</v>
       </c>
       <c r="Q21">
         <v>37.490687999999999</v>
@@ -2342,10 +2345,10 @@
         <v>36</v>
       </c>
       <c r="O22">
-        <v>901.69426082400003</v>
+        <v>901.69221876899996</v>
       </c>
       <c r="P22">
-        <v>901.04549301415602</v>
+        <v>901.03381768241502</v>
       </c>
       <c r="Q22">
         <v>39.698431999999997</v>
@@ -2425,13 +2428,13 @@
         <v>36</v>
       </c>
       <c r="O23">
-        <v>901.58760404099996</v>
+        <v>901.57996135200005</v>
       </c>
       <c r="P23">
-        <v>901.06385182961799</v>
+        <v>901.038075443357</v>
       </c>
       <c r="Q23">
-        <v>43.085823999999903</v>
+        <v>43.081727999999998</v>
       </c>
       <c r="R23" t="s">
         <v>36</v>
@@ -2505,16 +2508,16 @@
         <v>13.918208</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O24">
-        <v>901.68764801299994</v>
+        <v>582.11026493600002</v>
       </c>
       <c r="P24">
-        <v>901.05780038237504</v>
+        <v>581.70183198898997</v>
       </c>
       <c r="Q24">
-        <v>36.237311999999903</v>
+        <v>27.328512</v>
       </c>
       <c r="R24" t="s">
         <v>35</v>
@@ -2591,13 +2594,13 @@
         <v>36</v>
       </c>
       <c r="O25">
-        <v>901.67430430800005</v>
+        <v>901.67930187900004</v>
       </c>
       <c r="P25">
-        <v>901.08178128674604</v>
+        <v>901.06177636235896</v>
       </c>
       <c r="Q25">
-        <v>59.908096</v>
+        <v>59.903999999999897</v>
       </c>
       <c r="R25" t="s">
         <v>36</v>
@@ -2639,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15940F18-611E-B343-83C3-063D261F54BB}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2771,12 +2774,13 @@
         <f>runs!$C4+runs!$K4</f>
         <v>84.517844608999994</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
+      <c r="F4" t="str">
+        <f>runs!N4</f>
+        <v>sat</v>
       </c>
       <c r="G4">
         <f>runs!$C4+runs!$O4</f>
-        <v>121.953791559</v>
+        <v>122.17939300399999</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -2809,12 +2813,13 @@
         <f>runs!$C5+runs!$K5</f>
         <v>419.490098515</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
+      <c r="F5" t="str">
+        <f>runs!N5</f>
+        <v>unsat</v>
       </c>
       <c r="G5">
         <f>runs!$C5+runs!$O5</f>
-        <v>647.38832807300003</v>
+        <v>293.26093050899999</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
@@ -2847,12 +2852,13 @@
         <f>runs!$C6+runs!$K6</f>
         <v>139.24567262599999</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
+      <c r="F6" t="str">
+        <f>runs!N6</f>
+        <v>sat</v>
       </c>
       <c r="G6">
         <f>runs!$C6+runs!$O6</f>
-        <v>284.54559541399999</v>
+        <v>283.37392563100002</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -2885,12 +2891,13 @@
         <f>runs!$C7+runs!$K7</f>
         <v>147.492316743</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
+      <c r="F7" t="str">
+        <f>runs!N7</f>
+        <v>unsat</v>
       </c>
       <c r="G7">
         <f>runs!$C7+runs!$O7</f>
-        <v>984.9101864480001</v>
+        <v>424.63564793</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
@@ -2923,12 +2930,13 @@
         <f>runs!$C8+runs!$K8</f>
         <v>985.42138445300009</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
+      <c r="F8" t="str">
+        <f>runs!N8</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G8">
         <f>runs!$C8+runs!$O8</f>
-        <v>985.52727621400004</v>
+        <v>985.53441414500003</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -2961,12 +2969,13 @@
         <f>runs!$C9+runs!$K9</f>
         <v>983.39959418599994</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
+      <c r="F9" t="str">
+        <f>runs!N9</f>
+        <v>unsat</v>
       </c>
       <c r="G9">
         <f>runs!$C9+runs!$O9</f>
-        <v>983.41400106099991</v>
+        <v>446.62731871200003</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -2999,12 +3008,13 @@
         <f>runs!$C10+runs!$K10</f>
         <v>1004.2402970400001</v>
       </c>
-      <c r="F10" t="s">
-        <v>36</v>
+      <c r="F10" t="str">
+        <f>runs!N10</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G10">
         <f>runs!$C10+runs!$O10</f>
-        <v>1004.2567185920001</v>
+        <v>1004.1542270120001</v>
       </c>
       <c r="H10" t="s">
         <v>36</v>
@@ -3037,12 +3047,13 @@
         <f>runs!$C11+runs!$K11</f>
         <v>985.52799491299993</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
+      <c r="F11" t="str">
+        <f>runs!N11</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G11">
         <f>runs!$C11+runs!$O11</f>
-        <v>985.44300390500007</v>
+        <v>985.53949623099993</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
@@ -3075,12 +3086,13 @@
         <f>runs!$C12+runs!$K12</f>
         <v>1004.254336788</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
+      <c r="F12" t="str">
+        <f>runs!N12</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G12">
         <f>runs!$C12+runs!$O12</f>
-        <v>1004.269619033</v>
+        <v>1004.269387768</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -3113,12 +3125,13 @@
         <f>runs!$C13+runs!$K13</f>
         <v>394.42028401100004</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
+      <c r="F13" t="str">
+        <f>runs!N13</f>
+        <v>unsat</v>
       </c>
       <c r="G13">
         <f>runs!$C13+runs!$O13</f>
-        <v>987.027954765</v>
+        <v>376.04263589000004</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -3151,12 +3164,13 @@
         <f>runs!$C14+runs!$K14</f>
         <v>964.08073540600003</v>
       </c>
-      <c r="F14" t="s">
-        <v>36</v>
+      <c r="F14" t="str">
+        <f>runs!N14</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G14">
         <f>runs!$C14+runs!$O14</f>
-        <v>964.18600255800004</v>
+        <v>964.18981500100006</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -3189,12 +3203,13 @@
         <f>runs!$C15+runs!$K15</f>
         <v>855.42918908299998</v>
       </c>
-      <c r="F15" t="s">
-        <v>34</v>
+      <c r="F15" t="str">
+        <f>runs!N15</f>
+        <v>sat</v>
       </c>
       <c r="G15">
         <f>runs!$C15+runs!$O15</f>
-        <v>652.40198882799996</v>
+        <v>651.59538788599991</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -3227,12 +3242,13 @@
         <f>runs!$C16+runs!$K16</f>
         <v>982.60770851099994</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
+      <c r="F16" t="str">
+        <f>runs!N16</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G16">
         <f>runs!$C16+runs!$O16</f>
-        <v>982.624975328</v>
+        <v>982.62481223600003</v>
       </c>
       <c r="H16" t="s">
         <v>34</v>
@@ -3265,12 +3281,13 @@
         <f>runs!$C17+runs!$K17</f>
         <v>982.66458471199996</v>
       </c>
-      <c r="F17" t="s">
-        <v>36</v>
+      <c r="F17" t="str">
+        <f>runs!N17</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G17">
         <f>runs!$C17+runs!$O17</f>
-        <v>982.58346451499995</v>
+        <v>982.58127506899996</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -3303,12 +3320,13 @@
         <f>runs!$C18+runs!$K18</f>
         <v>982.79798260000007</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
+      <c r="F18" t="str">
+        <f>runs!N18</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G18">
         <f>runs!$C18+runs!$O18</f>
-        <v>982.81035669099992</v>
+        <v>982.81320569600007</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -3341,12 +3359,13 @@
         <f>runs!$C19+runs!$K19</f>
         <v>982.95250367699998</v>
       </c>
-      <c r="F19" t="s">
-        <v>36</v>
+      <c r="F19" t="str">
+        <f>runs!N19</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G19">
         <f>runs!$C19+runs!$O19</f>
-        <v>982.95435040000007</v>
+        <v>982.95867828100006</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -3379,12 +3398,13 @@
         <f>runs!$C20+runs!$K20</f>
         <v>983.092790294</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
+      <c r="F20" t="str">
+        <f>runs!N20</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G20">
         <f>runs!$C20+runs!$O20</f>
-        <v>983.10872894600004</v>
+        <v>983.10941809100007</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3417,12 +3437,13 @@
         <f>runs!$C21+runs!$K21</f>
         <v>983.23247173300001</v>
       </c>
-      <c r="F21" t="s">
-        <v>36</v>
+      <c r="F21" t="str">
+        <f>runs!N21</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G21">
         <f>runs!$C21+runs!$O21</f>
-        <v>983.34168560599994</v>
+        <v>983.337197747</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -3455,12 +3476,13 @@
         <f>runs!$C22+runs!$K22</f>
         <v>983.43518966400006</v>
       </c>
-      <c r="F22" t="s">
-        <v>36</v>
+      <c r="F22" t="str">
+        <f>runs!N22</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G22">
         <f>runs!$C22+runs!$O22</f>
-        <v>983.45056248800006</v>
+        <v>983.448520433</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -3493,12 +3515,13 @@
         <f>runs!$C23+runs!$K23</f>
         <v>983.63426502300001</v>
       </c>
-      <c r="F23" t="s">
-        <v>36</v>
+      <c r="F23" t="str">
+        <f>runs!N23</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G23">
         <f>runs!$C23+runs!$O23</f>
-        <v>983.54413306399999</v>
+        <v>983.53649037500008</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -3531,12 +3554,13 @@
         <f>runs!$C24+runs!$K24</f>
         <v>100.77277795900001</v>
       </c>
-      <c r="F24" t="s">
-        <v>36</v>
+      <c r="F24" t="str">
+        <f>runs!N24</f>
+        <v>unsat</v>
       </c>
       <c r="G24">
         <f>runs!$C24+runs!$O24</f>
-        <v>982.43592217199989</v>
+        <v>662.85853909499997</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -3569,12 +3593,13 @@
         <f>runs!$C25+runs!$K25</f>
         <v>963.23305273599999</v>
       </c>
-      <c r="F25" t="s">
-        <v>36</v>
+      <c r="F25" t="str">
+        <f>runs!N25</f>
+        <v>TIMEOUT</v>
       </c>
       <c r="G25">
         <f>runs!$C25+runs!$O25</f>
-        <v>963.22285604400008</v>
+        <v>963.22785361500007</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -3615,7 +3640,7 @@
       </c>
       <c r="G27">
         <f xml:space="preserve"> SUMIF(F$4:F$25, "sat",G$4:G$25)</f>
-        <v>1058.9013758010001</v>
+        <v>1057.1487065209999</v>
       </c>
       <c r="H27">
         <f>COUNTIF(H$4:H$25,"sat")</f>
@@ -3656,11 +3681,11 @@
       </c>
       <c r="F28">
         <f>COUNTIF(F$4:F$25,"unsat")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <f xml:space="preserve"> SUMIF(F$4:F$25, "unsat",G$4:G$25)</f>
-        <v>647.38832807300003</v>
+        <v>2203.4250721360004</v>
       </c>
       <c r="H28">
         <f>COUNTIF(H$4:H$25,"unsat")</f>
@@ -3701,11 +3726,11 @@
       </c>
       <c r="F29">
         <f>COUNTIF(F$4:F$25,"sat") + COUNTIF(F$4:F$25,"unsat")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <f xml:space="preserve"> SUMIF(F$4:F$25, "sat",G$4:G$25)+ SUMIF(F$4:F$25, "unsat",G$4:G$25)</f>
-        <v>1706.2897038740002</v>
+        <v>3260.5737786570003</v>
       </c>
       <c r="H29">
         <f>COUNTIF(H$4:H$25,"sat") + COUNTIF(H$4:H$25,"unsat")</f>
@@ -3783,7 +3808,7 @@
       </c>
       <c r="F32">
         <f>COUNTIF(F$4:F$25,"TIMEOUT")</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H32">
         <f>COUNTIF(H$4:H$25,"TIMEOUT")</f>

--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6BA9A-7695-EE41-B10F-8E282F290F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DE2EE-3772-844E-988E-5C1F5C7D5CA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15860" activeTab="1" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
-    <sheet name="realtime" sheetId="2" r:id="rId2"/>
+    <sheet name="realtime (thesis)" sheetId="2" r:id="rId2"/>
+    <sheet name="realtime (sat2021paper)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">realtime!$A$1:$K$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'realtime (sat2021paper)'!$A$1:$K$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'realtime (thesis)'!$A$1:$K$25</definedName>
+    <definedName name="benchmark_hqs.2021_03_15_2006.results.SAT" localSheetId="0">runs!$AF$1:$AJ$25</definedName>
+    <definedName name="benchmark_iprover.2021_03_15_1800.results.qbf_mode_noproofreconstruction.SAT" localSheetId="0">runs!$AB$1:$AE$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +40,36 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{45F94791-3283-A540-A709-E21CA2A5588B}" name="benchmark-hqs.2021-03-15_2006.results.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-15_2006.results.SAT.csv" thousands=" ">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{E9B45343-3DF2-7E4B-8AE9-FC29467FC43C}" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT.csv" thousands=" ">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="55">
   <si>
     <t>tool</t>
   </si>
@@ -162,9 +194,6 @@
     <t>qbf-mode.SAT</t>
   </si>
   <si>
-    <t>HQS 2</t>
-  </si>
-  <si>
     <t>Preprocessor solved</t>
   </si>
   <si>
@@ -196,6 +225,15 @@
   </si>
   <si>
     <t>qbf-mode-noproofreconstruction.SAT</t>
+  </si>
+  <si>
+    <t>iProver v3.4 (post CASC-J10 2020)</t>
+  </si>
+  <si>
+    <t>HQS 2 (QBFEval2019 version)</t>
+  </si>
+  <si>
+    <t>HQS 2 (2021-03-09)</t>
   </si>
 </sst>
 </file>
@@ -248,6 +286,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" connectionId="2" xr16:uid="{51D45A2C-77CF-184F-B651-A958E2C405C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-15_2006.results.SAT" connectionId="1" xr16:uid="{AB073F89-789C-A947-84E8-33DCFECEDC4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,18 +593,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,37 +662,64 @@
         <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="W1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -682,16 +760,16 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
@@ -709,22 +787,49 @@
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -789,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
         <v>5</v>
@@ -804,10 +909,37 @@
         <v>8</v>
       </c>
       <c r="AA3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -889,8 +1021,35 @@
       <c r="AA4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4">
+        <v>110.711514849</v>
+      </c>
+      <c r="AD4">
+        <v>110.682046458125</v>
+      </c>
+      <c r="AE4">
+        <v>155.15647999999999</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4">
+        <v>832.87283884299995</v>
+      </c>
+      <c r="AH4">
+        <v>832.29386685043505</v>
+      </c>
+      <c r="AI4">
+        <v>231.94419199999999</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -972,8 +1131,35 @@
       <c r="AA5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5">
+        <v>155.825861879</v>
+      </c>
+      <c r="AD5">
+        <v>155.743059419095</v>
+      </c>
+      <c r="AE5">
+        <v>26.828799999999902</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5">
+        <v>901.67914393599995</v>
+      </c>
+      <c r="AH5">
+        <v>901.05149593949295</v>
+      </c>
+      <c r="AI5">
+        <v>189.34169599999899</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1055,8 +1241,35 @@
       <c r="AA6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6">
+        <v>41.562522086000001</v>
+      </c>
+      <c r="AD6">
+        <v>41.587547972798298</v>
+      </c>
+      <c r="AE6">
+        <v>120.32</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6">
+        <v>83.985577026000001</v>
+      </c>
+      <c r="AH6">
+        <v>83.980273455381393</v>
+      </c>
+      <c r="AI6">
+        <v>75.235327999999996</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1138,8 +1351,35 @@
       <c r="AA7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7">
+        <v>213.742859283</v>
+      </c>
+      <c r="AD7">
+        <v>213.615866027772</v>
+      </c>
+      <c r="AE7">
+        <v>30.568448</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7">
+        <v>901.68058600100005</v>
+      </c>
+      <c r="AH7">
+        <v>901.05144338309697</v>
+      </c>
+      <c r="AI7">
+        <v>185.84371199999899</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1221,8 +1461,35 @@
       <c r="AA8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8">
+        <v>901.69282241099995</v>
+      </c>
+      <c r="AD8">
+        <v>901.03564617782797</v>
+      </c>
+      <c r="AE8">
+        <v>38.776831999999999</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG8">
+        <v>901.67710434000003</v>
+      </c>
+      <c r="AH8">
+        <v>901.04437747597694</v>
+      </c>
+      <c r="AI8">
+        <v>213.95865599999999</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1304,8 +1571,35 @@
       <c r="AA9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9">
+        <v>294.63128912500002</v>
+      </c>
+      <c r="AD9">
+        <v>294.46732303500102</v>
+      </c>
+      <c r="AE9">
+        <v>22.634495999999999</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9">
+        <v>901.66101365400004</v>
+      </c>
+      <c r="AH9">
+        <v>901.03601391613404</v>
+      </c>
+      <c r="AI9">
+        <v>165.855232</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +1681,35 @@
       <c r="AA10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10">
+        <v>901.60382102000005</v>
+      </c>
+      <c r="AD10">
+        <v>901.05118076503197</v>
+      </c>
+      <c r="AE10">
+        <v>25.223167999999902</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10">
+        <v>901.58648225699994</v>
+      </c>
+      <c r="AH10">
+        <v>901.059654518961</v>
+      </c>
+      <c r="AI10">
+        <v>140.65663999999899</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1470,8 +1791,35 @@
       <c r="AA11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11">
+        <v>901.68936709800005</v>
+      </c>
+      <c r="AD11">
+        <v>901.06717120856001</v>
+      </c>
+      <c r="AE11">
+        <v>62.201855999999999</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG11">
+        <v>901.67447847100004</v>
+      </c>
+      <c r="AH11">
+        <v>901.05039726942698</v>
+      </c>
+      <c r="AI11">
+        <v>80.576511999999994</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1553,8 +1901,35 @@
       <c r="AA12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12">
+        <v>901.69298983299996</v>
+      </c>
+      <c r="AD12">
+        <v>901.03542183339596</v>
+      </c>
+      <c r="AE12">
+        <v>28.626943999999899</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12">
+        <v>901.68121848700002</v>
+      </c>
+      <c r="AH12">
+        <v>901.03785905987002</v>
+      </c>
+      <c r="AI12">
+        <v>94.478335999999999</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1636,8 +2011,35 @@
       <c r="AA13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13">
+        <v>423.37470591700003</v>
+      </c>
+      <c r="AD13">
+        <v>423.09941617399397</v>
+      </c>
+      <c r="AE13">
+        <v>51.220479999999903</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG13">
+        <v>367.02703965500001</v>
+      </c>
+      <c r="AH13">
+        <v>366.81226813048102</v>
+      </c>
+      <c r="AI13">
+        <v>75.763711999999998</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X14">
         <v>100.23334106199999</v>
@@ -1719,8 +2121,35 @@
       <c r="AA14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC14">
+        <v>901.68922726200003</v>
+      </c>
+      <c r="AD14">
+        <v>901.03536083549204</v>
+      </c>
+      <c r="AE14">
+        <v>36.982783999999903</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG14">
+        <v>901.72708749100002</v>
+      </c>
+      <c r="AH14">
+        <v>901.096422955393</v>
+      </c>
+      <c r="AI14">
+        <v>75.812863999999905</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1802,8 +2231,35 @@
       <c r="AA15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC15">
+        <v>259.16897380799998</v>
+      </c>
+      <c r="AD15">
+        <v>259.00345366448101</v>
+      </c>
+      <c r="AE15">
+        <v>137.27334399999901</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG15">
+        <v>901.71559969899999</v>
+      </c>
+      <c r="AH15">
+        <v>901.09816174209095</v>
+      </c>
+      <c r="AI15">
+        <v>95.612927999999997</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1885,8 +2341,35 @@
       <c r="AA16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16">
+        <v>901.70050742199999</v>
+      </c>
+      <c r="AD16">
+        <v>901.05151809751897</v>
+      </c>
+      <c r="AE16">
+        <v>119.6032</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG16">
+        <v>901.58548536299998</v>
+      </c>
+      <c r="AH16">
+        <v>901.05855728685799</v>
+      </c>
+      <c r="AI16">
+        <v>119.92268799999999</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1968,8 +2451,35 @@
       <c r="AA17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17">
+        <v>901.70368418500004</v>
+      </c>
+      <c r="AD17">
+        <v>901.04718745499804</v>
+      </c>
+      <c r="AE17">
+        <v>133.087232</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG17">
+        <v>901.67777476699996</v>
+      </c>
+      <c r="AH17">
+        <v>901.034655377268</v>
+      </c>
+      <c r="AI17">
+        <v>134.848512</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2051,8 +2561,35 @@
       <c r="AA18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18">
+        <v>901.61588701200003</v>
+      </c>
+      <c r="AD18">
+        <v>901.07116413861502</v>
+      </c>
+      <c r="AE18">
+        <v>131.26041599999999</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG18">
+        <v>901.66716214999997</v>
+      </c>
+      <c r="AH18">
+        <v>901.05075105279604</v>
+      </c>
+      <c r="AI18">
+        <v>148.81587199999899</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2134,8 +2671,35 @@
       <c r="AA19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19">
+        <v>901.68780758800006</v>
+      </c>
+      <c r="AD19">
+        <v>901.03533336520195</v>
+      </c>
+      <c r="AE19">
+        <v>26.787839999999999</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG19">
+        <v>901.67692083600002</v>
+      </c>
+      <c r="AH19">
+        <v>901.05563405156101</v>
+      </c>
+      <c r="AI19">
+        <v>117.710848</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2217,8 +2781,35 @@
       <c r="AA20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20">
+        <v>901.69256572699999</v>
+      </c>
+      <c r="AD20">
+        <v>901.03540933877196</v>
+      </c>
+      <c r="AE20">
+        <v>28.618751999999901</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG20">
+        <v>901.67632928499995</v>
+      </c>
+      <c r="AH20">
+        <v>901.03472539782501</v>
+      </c>
+      <c r="AI20">
+        <v>123.641855999999</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2300,8 +2891,35 @@
       <c r="AA21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21">
+        <v>901.68925753500002</v>
+      </c>
+      <c r="AD21">
+        <v>901.05123230069796</v>
+      </c>
+      <c r="AE21">
+        <v>29.532159999999902</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG21">
+        <v>901.66306977900001</v>
+      </c>
+      <c r="AH21">
+        <v>901.03534835577</v>
+      </c>
+      <c r="AI21">
+        <v>109.28947199999899</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2383,8 +3001,35 @@
       <c r="AA22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC22">
+        <v>901.69137835799995</v>
+      </c>
+      <c r="AD22">
+        <v>901.03558050841002</v>
+      </c>
+      <c r="AE22">
+        <v>30.445567999999898</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG22">
+        <v>901.58221170399997</v>
+      </c>
+      <c r="AH22">
+        <v>901.03409445285797</v>
+      </c>
+      <c r="AI22">
+        <v>126.787584</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2466,8 +3111,35 @@
       <c r="AA23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23">
+        <v>901.69002901900001</v>
+      </c>
+      <c r="AD23">
+        <v>901.03498999774399</v>
+      </c>
+      <c r="AE23">
+        <v>31.612928</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG23">
+        <v>901.68034021100004</v>
+      </c>
+      <c r="AH23">
+        <v>901.05057413876</v>
+      </c>
+      <c r="AI23">
+        <v>122.585088</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2535,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X24">
         <v>122.45577283</v>
@@ -2549,8 +3221,35 @@
       <c r="AA24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC24">
+        <v>200.43217193699999</v>
+      </c>
+      <c r="AD24">
+        <v>200.350854896008</v>
+      </c>
+      <c r="AE24">
+        <v>22.634495999999999</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG24">
+        <v>6.8471242510000003</v>
+      </c>
+      <c r="AH24">
+        <v>6.8906830698251698</v>
+      </c>
+      <c r="AI24">
+        <v>18.39104</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2618,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X25">
         <v>101.845925041</v>
@@ -2630,6 +3329,33 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25">
+        <v>901.68757961599999</v>
+      </c>
+      <c r="AD25">
+        <v>901.03522641211703</v>
+      </c>
+      <c r="AE25">
+        <v>31.891455999999899</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG25">
+        <v>901.67539400099997</v>
+      </c>
+      <c r="AH25">
+        <v>901.03483644872904</v>
+      </c>
+      <c r="AI25">
+        <v>171.78623999999999</v>
+      </c>
+      <c r="AJ25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2642,8 +3368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15940F18-611E-B343-83C3-063D261F54BB}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2674,16 +3400,16 @@
         <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2715,10 +3441,10 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3179,7 +3905,7 @@
         <v>901.96167575899995</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>100.23334106199999</v>
@@ -3569,7 +4295,7 @@
         <v>549.02354780500002</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>122.45577283</v>
@@ -3608,7 +4334,7 @@
         <v>901.55535977700004</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>101.845925041</v>
@@ -3616,7 +4342,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <f>COUNTIF(B$4:B$25,"sat")</f>
@@ -3661,7 +4387,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <f>COUNTIF(B$4:B$25,"unsat")</f>
@@ -3706,7 +4432,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <f>COUNTIF(B$4:B$25,"sat") + COUNTIF(B$4:B$25,"unsat")</f>
@@ -3771,7 +4497,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <f>COUNTIF(B$4:B$25,"OUT OF MEMORY")</f>
@@ -3796,7 +4522,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <f>COUNTIF(B$4:B$25,"TIMEOUT")</f>
@@ -3821,7 +4547,1263 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <f>22-B29-B31-B32</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>22-D29-D31-D32</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>22-F29-F31-F32</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>22-H29-H31-H32</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>22-J29-J31-J32</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K25" xr:uid="{7BA85B73-FD3C-5048-9A1A-966612B6D032}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8BA565-CB29-DF41-86C0-325693778015}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <f>runs!$C4+runs!$G4</f>
+        <v>90.465824277999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <f>runs!$C4+runs!$K4</f>
+        <v>84.517844608999994</v>
+      </c>
+      <c r="F4" t="str">
+        <f>runs!AB4</f>
+        <v>sat</v>
+      </c>
+      <c r="G4">
+        <f>runs!$C4+runs!$AC4</f>
+        <v>194.01757018799998</v>
+      </c>
+      <c r="H4" t="str">
+        <f>runs!AF4</f>
+        <v>sat</v>
+      </c>
+      <c r="I4">
+        <f>runs!AG4</f>
+        <v>832.87283884299995</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>901.68752353000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <f>runs!$C5+runs!$G5</f>
+        <v>756.839187573</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f>runs!$C5+runs!$K5</f>
+        <v>419.490098515</v>
+      </c>
+      <c r="F5" t="str">
+        <f>runs!AB5</f>
+        <v>unsat</v>
+      </c>
+      <c r="G5">
+        <f>runs!$C5+runs!$AC5</f>
+        <v>238.695778394</v>
+      </c>
+      <c r="H5" t="str">
+        <f>runs!AF5</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I5">
+        <f>runs!AG5</f>
+        <v>901.67914393599995</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>901.68960319099995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <f>runs!$C6+runs!$G6</f>
+        <v>86.434134485000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <f>runs!$C6+runs!$K6</f>
+        <v>139.24567262599999</v>
+      </c>
+      <c r="F6" t="str">
+        <f>runs!AB6</f>
+        <v>sat</v>
+      </c>
+      <c r="G6">
+        <f>runs!$C6+runs!$AC6</f>
+        <v>126.838542112</v>
+      </c>
+      <c r="H6" t="str">
+        <f>runs!AF6</f>
+        <v>sat</v>
+      </c>
+      <c r="I6">
+        <f>runs!AG6</f>
+        <v>83.985577026000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>901.67721245400003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <f>runs!$C7+runs!$G7</f>
+        <v>150.97679062200001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <f>runs!$C7+runs!$K7</f>
+        <v>147.492316743</v>
+      </c>
+      <c r="F7" t="str">
+        <f>runs!AB7</f>
+        <v>unsat</v>
+      </c>
+      <c r="G7">
+        <f>runs!$C7+runs!$AC7</f>
+        <v>296.96361532599997</v>
+      </c>
+      <c r="H7" t="str">
+        <f>runs!AF7</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I7">
+        <f>runs!AG7</f>
+        <v>901.68058600100005</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>901.59191515400005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <f>runs!$C8+runs!$G8</f>
+        <v>985.52279389099999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <f>runs!$C8+runs!$K8</f>
+        <v>985.42138445300009</v>
+      </c>
+      <c r="F8" t="str">
+        <f>runs!AB8</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G8">
+        <f>runs!$C8+runs!$AC8</f>
+        <v>985.53533586399999</v>
+      </c>
+      <c r="H8" t="str">
+        <f>runs!AF8</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I8">
+        <f>runs!AG8</f>
+        <v>901.67710434000003</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>901.69223948199999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <f>runs!$C9+runs!$G9</f>
+        <v>422.23377391299999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <f>runs!$C9+runs!$K9</f>
+        <v>983.39959418599994</v>
+      </c>
+      <c r="F9" t="str">
+        <f>runs!AB9</f>
+        <v>unsat</v>
+      </c>
+      <c r="G9">
+        <f>runs!$C9+runs!$AC9</f>
+        <v>376.35580831100003</v>
+      </c>
+      <c r="H9" t="str">
+        <f>runs!AF9</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I9">
+        <f>runs!AG9</f>
+        <v>901.66101365400004</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>901.70783484900005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <f>runs!$C10+runs!$G10</f>
+        <v>1004.2482167620001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <f>runs!$C10+runs!$K10</f>
+        <v>1004.2402970400001</v>
+      </c>
+      <c r="F10" t="str">
+        <f>runs!AB10</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G10">
+        <f>runs!$C10+runs!$AC10</f>
+        <v>1004.1678460600001</v>
+      </c>
+      <c r="H10" t="str">
+        <f>runs!AF10</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I10">
+        <f>runs!AG10</f>
+        <v>901.58648225699994</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>901.68435881200003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <f>runs!$C11+runs!$G11</f>
+        <v>985.42288802600001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <f>runs!$C11+runs!$K11</f>
+        <v>985.52799491299993</v>
+      </c>
+      <c r="F11" t="str">
+        <f>runs!AB11</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G11">
+        <f>runs!$C11+runs!$AC11</f>
+        <v>985.53508001099999</v>
+      </c>
+      <c r="H11" t="str">
+        <f>runs!AF11</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I11">
+        <f>runs!AG11</f>
+        <v>901.67447847100004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>901.72287170499999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <f>runs!$C12+runs!$G12</f>
+        <v>1004.246532282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <f>runs!$C12+runs!$K12</f>
+        <v>1004.254336788</v>
+      </c>
+      <c r="F12" t="str">
+        <f>runs!AB12</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G12">
+        <f>runs!$C12+runs!$AC12</f>
+        <v>1004.268086621</v>
+      </c>
+      <c r="H12" t="str">
+        <f>runs!AF12</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I12">
+        <f>runs!AG12</f>
+        <v>901.68121848700002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>901.67789361099994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <f>runs!$C13+runs!$G13</f>
+        <v>741.03161915299995</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <f>runs!$C13+runs!$K13</f>
+        <v>394.42028401100004</v>
+      </c>
+      <c r="F13" t="str">
+        <f>runs!AB13</f>
+        <v>unsat</v>
+      </c>
+      <c r="G13">
+        <f>runs!$C13+runs!$AC13</f>
+        <v>508.71387592799999</v>
+      </c>
+      <c r="H13" t="str">
+        <f>runs!AF13</f>
+        <v>unsat</v>
+      </c>
+      <c r="I13">
+        <f>runs!AG13</f>
+        <v>367.02703965500001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>901.58992234699997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <f>runs!$C14+runs!$G14</f>
+        <v>964.17038358399998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <f>runs!$C14+runs!$K14</f>
+        <v>964.08073540600003</v>
+      </c>
+      <c r="F14" t="str">
+        <f>runs!AB14</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G14">
+        <f>runs!$C14+runs!$AC14</f>
+        <v>964.18756466800005</v>
+      </c>
+      <c r="H14" t="str">
+        <f>runs!AF14</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I14">
+        <f>runs!AG14</f>
+        <v>901.72708749100002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>100.23334106199999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <f>runs!$C15+runs!$G15</f>
+        <v>102.840955768</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <f>runs!$C15+runs!$K15</f>
+        <v>855.42918908299998</v>
+      </c>
+      <c r="F15" t="str">
+        <f>runs!AB15</f>
+        <v>sat</v>
+      </c>
+      <c r="G15">
+        <f>runs!$C15+runs!$AC15</f>
+        <v>339.85231689099999</v>
+      </c>
+      <c r="H15" t="str">
+        <f>runs!AF15</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I15">
+        <f>runs!AG15</f>
+        <v>901.71559969899999</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>901.68927400400003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <f>runs!$C16+runs!$G16</f>
+        <v>982.60487982899997</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f>runs!$C16+runs!$K16</f>
+        <v>982.60770851099994</v>
+      </c>
+      <c r="F16" t="str">
+        <f>runs!AB16</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G16">
+        <f>runs!$C16+runs!$AC16</f>
+        <v>982.62785593299998</v>
+      </c>
+      <c r="H16" t="str">
+        <f>runs!AF16</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I16">
+        <f>runs!AG16</f>
+        <v>901.58548536299998</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>901.68209472700005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <f>runs!$C17+runs!$G17</f>
+        <v>102.577069726</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <f>runs!$C17+runs!$K17</f>
+        <v>982.66458471199996</v>
+      </c>
+      <c r="F17" t="str">
+        <f>runs!AB17</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G17">
+        <f>runs!$C17+runs!$AC17</f>
+        <v>982.691622897</v>
+      </c>
+      <c r="H17" t="str">
+        <f>runs!AF17</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I17">
+        <f>runs!AG17</f>
+        <v>901.67777476699996</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>901.69477151900003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <f>runs!$C18+runs!$G18</f>
+        <v>982.69620468499988</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f>runs!$C18+runs!$K18</f>
+        <v>982.79798260000007</v>
+      </c>
+      <c r="F18" t="str">
+        <f>runs!AB18</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G18">
+        <f>runs!$C18+runs!$AC18</f>
+        <v>982.73497561199997</v>
+      </c>
+      <c r="H18" t="str">
+        <f>runs!AF18</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I18">
+        <f>runs!AG18</f>
+        <v>901.66716214999997</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>901.67485828500003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <f>runs!$C19+runs!$G19</f>
+        <v>982.93850584400002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <f>runs!$C19+runs!$K19</f>
+        <v>982.95250367699998</v>
+      </c>
+      <c r="F19" t="str">
+        <f>runs!AB19</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G19">
+        <f>runs!$C19+runs!$AC19</f>
+        <v>982.95202926500008</v>
+      </c>
+      <c r="H19" t="str">
+        <f>runs!AF19</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I19">
+        <f>runs!AG19</f>
+        <v>901.67692083600002</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>901.58268729899999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <f>runs!$C20+runs!$G20</f>
+        <v>983.08902695000006</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <f>runs!$C20+runs!$K20</f>
+        <v>983.092790294</v>
+      </c>
+      <c r="F20" t="str">
+        <f>runs!AB20</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G20">
+        <f>runs!$C20+runs!$AC20</f>
+        <v>983.10783802100002</v>
+      </c>
+      <c r="H20" t="str">
+        <f>runs!AF20</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I20">
+        <f>runs!AG20</f>
+        <v>901.67632928499995</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>901.68978389999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <f>runs!$C21+runs!$G21</f>
+        <v>983.320167932</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <f>runs!$C21+runs!$K21</f>
+        <v>983.23247173300001</v>
+      </c>
+      <c r="F21" t="str">
+        <f>runs!AB21</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G21">
+        <f>runs!$C21+runs!$AC21</f>
+        <v>983.33696026799998</v>
+      </c>
+      <c r="H21" t="str">
+        <f>runs!AF21</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I21">
+        <f>runs!AG21</f>
+        <v>901.66306977900001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>901.68064061300004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <f>runs!$C22+runs!$G22</f>
+        <v>983.42686471800005</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <f>runs!$C22+runs!$K22</f>
+        <v>983.43518966400006</v>
+      </c>
+      <c r="F22" t="str">
+        <f>runs!AB22</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G22">
+        <f>runs!$C22+runs!$AC22</f>
+        <v>983.44768002199999</v>
+      </c>
+      <c r="H22" t="str">
+        <f>runs!AF22</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I22">
+        <f>runs!AG22</f>
+        <v>901.58221170399997</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>901.68176643000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <f>runs!$C23+runs!$G23</f>
+        <v>983.63806619800005</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <f>runs!$C23+runs!$K23</f>
+        <v>983.63426502300001</v>
+      </c>
+      <c r="F23" t="str">
+        <f>runs!AB23</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G23">
+        <f>runs!$C23+runs!$AC23</f>
+        <v>983.64655804200004</v>
+      </c>
+      <c r="H23" t="str">
+        <f>runs!AF23</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I23">
+        <f>runs!AG23</f>
+        <v>901.68034021100004</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>901.69052446000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <f>runs!$C24+runs!$G24</f>
+        <v>92.844708660000009</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <f>runs!$C24+runs!$K24</f>
+        <v>100.77277795900001</v>
+      </c>
+      <c r="F24" t="str">
+        <f>runs!AB24</f>
+        <v>unsat</v>
+      </c>
+      <c r="G24">
+        <f>runs!$C24+runs!$AC24</f>
+        <v>281.18044609599997</v>
+      </c>
+      <c r="H24" t="str">
+        <f>runs!AF24</f>
+        <v>unsat</v>
+      </c>
+      <c r="I24">
+        <f>runs!AG24</f>
+        <v>6.8471242510000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>122.45577283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <f>runs!$C25+runs!$G25</f>
+        <v>963.22530066299998</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <f>runs!$C25+runs!$K25</f>
+        <v>963.23305273599999</v>
+      </c>
+      <c r="F25" t="str">
+        <f>runs!AB25</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="G25">
+        <f>runs!$C25+runs!$AC25</f>
+        <v>963.23613135200003</v>
+      </c>
+      <c r="H25" t="str">
+        <f>runs!AF25</f>
+        <v>TIMEOUT</v>
+      </c>
+      <c r="I25">
+        <f>runs!AG25</f>
+        <v>901.67539400099997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>101.845925041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(B$4:B$25,"sat")</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f xml:space="preserve"> SUMIF(B$4:B$25, "sat",C$4:C$25)</f>
+        <v>382.31798425699998</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIF(D$4:D$25,"sat")</f>
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f xml:space="preserve"> SUMIF(D$4:D$25, "sat",E$4:E$25)</f>
+        <v>1079.1927063180001</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(F$4:F$25,"sat")</f>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f xml:space="preserve"> SUMIF(F$4:F$25, "sat",G$4:G$25)</f>
+        <v>660.70842919099994</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIF(H$4:H$25,"sat")</f>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> SUMIF(H$4:H$25, "sat",I$4:I$25)</f>
+        <v>916.85841586899994</v>
+      </c>
+      <c r="J27">
+        <f>COUNTIF(J$4:J$25,"sat")</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f xml:space="preserve"> SUMIF(J$4:J$25, "sat",K$4:K$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(B$4:B$25,"unsat")</f>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f xml:space="preserve"> SUMIF(B$4:B$25, "unsat",C$4:C$25)</f>
+        <v>2163.9260799210001</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF(D$4:D$25,"unsat")</f>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f xml:space="preserve"> SUMIF(D$4:D$25, "unsat",E$4:E$25)</f>
+        <v>1062.1754772280001</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF(F$4:F$25,"unsat")</f>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f xml:space="preserve"> SUMIF(F$4:F$25, "unsat",G$4:G$25)</f>
+        <v>1701.909524055</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIF(H$4:H$25,"unsat")</f>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> SUMIF(H$4:H$25, "unsat",I$4:I$25)</f>
+        <v>373.87416390600004</v>
+      </c>
+      <c r="J28">
+        <f>COUNTIF(J$4:J$25,"unsat")</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> SUMIF(J$4:J$25, "unsat",K$4:K$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(B$4:B$25,"sat") + COUNTIF(B$4:B$25,"unsat")</f>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f xml:space="preserve"> SUMIF(B$4:B$25, "sat",C$4:C$25)+ SUMIF(B$4:B$25, "unsat",C$4:C$25)</f>
+        <v>2546.2440641779999</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(D$4:D$25,"sat") + COUNTIF(D$4:D$25,"unsat")</f>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f xml:space="preserve"> SUMIF(D$4:D$25, "sat",E$4:E$25)+ SUMIF(D$4:D$25, "unsat",E$4:E$25)</f>
+        <v>2141.3681835460002</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(F$4:F$25,"sat") + COUNTIF(F$4:F$25,"unsat")</f>
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <f xml:space="preserve"> SUMIF(F$4:F$25, "sat",G$4:G$25)+ SUMIF(F$4:F$25, "unsat",G$4:G$25)</f>
+        <v>2362.6179532460001</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIF(H$4:H$25,"sat") + COUNTIF(H$4:H$25,"unsat")</f>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> SUMIF(H$4:H$25, "sat",I$4:I$25)+ SUMIF(H$4:H$25, "unsat",I$4:I$25)</f>
+        <v>1290.732579775</v>
+      </c>
+      <c r="J29">
+        <f>COUNTIF(J$4:J$25,"sat") + COUNTIF(J$4:J$25,"unsat")</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f xml:space="preserve"> SUMIF(J$4:J$25, "sat",K$4:K$25)+ SUMIF(J$4:J$25, "unsat",K$4:K$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(B$4:B$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIF(D$4:D$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(F$4:F$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF(H$4:H$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIF(J$4:J$25,"OUT OF MEMORY")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(B$4:B$25,"TIMEOUT")</f>
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(D$4:D$25,"TIMEOUT")</f>
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(F$4:F$25,"TIMEOUT")</f>
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIF(H$4:H$25,"TIMEOUT")</f>
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <f>COUNTIF(J$4:J$25,"TIMEOUT")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
       </c>
       <c r="B33">
         <f>22-B29-B31-B32</f>

--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812DE2EE-3772-844E-988E-5C1F5C7D5CA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB44FC-7983-0F49-B3DE-A795DEA392C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="realtime (sat2021paper)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'realtime (sat2021paper)'!$A$1:$K$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'realtime (sat2021paper)'!$A$1:$M$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'realtime (thesis)'!$A$1:$K$25</definedName>
     <definedName name="benchmark_hqs.2021_03_15_2006.results.SAT" localSheetId="0">runs!$AF$1:$AJ$25</definedName>
+    <definedName name="benchmark_hqs.2021_03_18_1932.results.SAT" localSheetId="0">runs!$AK$1:$AO$25</definedName>
     <definedName name="benchmark_iprover.2021_03_15_1800.results.qbf_mode_noproofreconstruction.SAT" localSheetId="0">runs!$AB$1:$AE$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +55,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{E9B45343-3DF2-7E4B-8AE9-FC29467FC43C}" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{5CCEDD4F-8E85-324E-B812-3DD189021D72}" name="benchmark-hqs.2021-03-18_1932.results.SAT" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-18_1932.results.SAT.csv" thousands=" ">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{E9B45343-3DF2-7E4B-8AE9-FC29467FC43C}" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT.csv" thousands=" ">
       <textFields count="5">
         <textField/>
@@ -69,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="58">
   <si>
     <t>tool</t>
   </si>
@@ -235,6 +248,15 @@
   <si>
     <t>HQS 2 (2021-03-09)</t>
   </si>
+  <si>
+    <t>HQS 2 (2021-03-18)</t>
+  </si>
+  <si>
+    <t>uniquely solved (with older HQS)</t>
+  </si>
+  <si>
+    <t>uniquely solved (with newer HQS)</t>
+  </si>
 </sst>
 </file>
 
@@ -249,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -269,8 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,10 +318,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" connectionId="2" xr16:uid="{51D45A2C-77CF-184F-B651-A958E2C405C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-18_1932.results.SAT" connectionId="2" xr16:uid="{452194D2-48E1-FA4C-9655-7E6CF17C6A66}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" connectionId="3" xr16:uid="{51D45A2C-77CF-184F-B651-A958E2C405C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-15_2006.results.SAT" connectionId="1" xr16:uid="{AB073F89-789C-A947-84E8-33DCFECEDC4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -593,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,9 +640,13 @@
     <col min="33" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,8 +755,23 @@
       <c r="AJ1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -828,8 +880,23 @@
       <c r="AJ2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -938,8 +1005,23 @@
       <c r="AJ3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1130,23 @@
       <c r="AJ4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL4">
+        <v>411.28142344299999</v>
+      </c>
+      <c r="AM4">
+        <v>411.01863977313002</v>
+      </c>
+      <c r="AN4">
+        <v>244.39193599999999</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1255,23 @@
       <c r="AJ5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5">
+        <v>901.68162037000002</v>
+      </c>
+      <c r="AM5">
+        <v>901.05162827670495</v>
+      </c>
+      <c r="AN5">
+        <v>154.55027200000001</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1268,8 +1380,23 @@
       <c r="AJ6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL6">
+        <v>420.88149212000002</v>
+      </c>
+      <c r="AM6">
+        <v>420.633788436651</v>
+      </c>
+      <c r="AN6">
+        <v>183.88582399999899</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1378,8 +1505,23 @@
       <c r="AJ7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL7">
+        <v>901.68258537099996</v>
+      </c>
+      <c r="AM7">
+        <v>901.06553751975298</v>
+      </c>
+      <c r="AN7">
+        <v>156.70886400000001</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1488,8 +1630,23 @@
       <c r="AJ8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL8">
+        <v>901.588919777</v>
+      </c>
+      <c r="AM8">
+        <v>901.05747612565699</v>
+      </c>
+      <c r="AN8">
+        <v>232.58726399999901</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1598,8 +1755,23 @@
       <c r="AJ9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL9">
+        <v>901.67113507700003</v>
+      </c>
+      <c r="AM9">
+        <v>901.04910250753096</v>
+      </c>
+      <c r="AN9">
+        <v>132.636672</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1708,8 +1880,23 @@
       <c r="AJ10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL10">
+        <v>901.69113702000004</v>
+      </c>
+      <c r="AM10">
+        <v>901.06540778279305</v>
+      </c>
+      <c r="AN10">
+        <v>129.65887999999899</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1818,8 +2005,23 @@
       <c r="AJ11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL11">
+        <v>901.68007574000001</v>
+      </c>
+      <c r="AM11">
+        <v>901.06110119074503</v>
+      </c>
+      <c r="AN11">
+        <v>135.80287999999999</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1928,8 +2130,23 @@
       <c r="AJ12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL12">
+        <v>901.68529084700003</v>
+      </c>
+      <c r="AM12">
+        <v>901.08164553344204</v>
+      </c>
+      <c r="AN12">
+        <v>91.877375999999998</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2038,8 +2255,23 @@
       <c r="AJ13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL13">
+        <v>161.11702512400001</v>
+      </c>
+      <c r="AM13">
+        <v>161.041254080832</v>
+      </c>
+      <c r="AN13">
+        <v>90.243071999999998</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2148,8 +2380,23 @@
       <c r="AJ14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL14">
+        <v>901.59869353199997</v>
+      </c>
+      <c r="AM14">
+        <v>901.06496053934097</v>
+      </c>
+      <c r="AN14">
+        <v>139.681792</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2258,8 +2505,23 @@
       <c r="AJ15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL15">
+        <v>901.68136535300005</v>
+      </c>
+      <c r="AM15">
+        <v>901.04532205313399</v>
+      </c>
+      <c r="AN15">
+        <v>96.161791999999906</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2368,8 +2630,23 @@
       <c r="AJ16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL16">
+        <v>869.65303129699998</v>
+      </c>
+      <c r="AM16">
+        <v>869.06536335498095</v>
+      </c>
+      <c r="AN16">
+        <v>121.491456</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2755,23 @@
       <c r="AJ17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL17">
+        <v>901.68706554599999</v>
+      </c>
+      <c r="AM17">
+        <v>901.08160433918204</v>
+      </c>
+      <c r="AN17">
+        <v>123.83846399999899</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2588,8 +2880,23 @@
       <c r="AJ18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL18">
+        <v>901.68068892700001</v>
+      </c>
+      <c r="AM18">
+        <v>901.06511279195502</v>
+      </c>
+      <c r="AN18">
+        <v>129.74489599999899</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2698,8 +3005,23 @@
       <c r="AJ19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL19">
+        <v>901.68066157700002</v>
+      </c>
+      <c r="AM19">
+        <v>901.06573764979805</v>
+      </c>
+      <c r="AN19">
+        <v>123.387903999999</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2808,8 +3130,23 @@
       <c r="AJ20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL20">
+        <v>901.59101434599995</v>
+      </c>
+      <c r="AM20">
+        <v>901.02922515571095</v>
+      </c>
+      <c r="AN20">
+        <v>127.004672</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2918,8 +3255,23 @@
       <c r="AJ21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL21">
+        <v>901.68126990400003</v>
+      </c>
+      <c r="AM21">
+        <v>901.08130658417895</v>
+      </c>
+      <c r="AN21">
+        <v>130.42073600000001</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3028,8 +3380,23 @@
       <c r="AJ22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL22">
+        <v>901.676364412</v>
+      </c>
+      <c r="AM22">
+        <v>901.04968257248402</v>
+      </c>
+      <c r="AN22">
+        <v>128.70041599999999</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3138,8 +3505,23 @@
       <c r="AJ23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL23">
+        <v>901.68464145300004</v>
+      </c>
+      <c r="AM23">
+        <v>901.06579589098601</v>
+      </c>
+      <c r="AN23">
+        <v>129.24518399999999</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3248,8 +3630,23 @@
       <c r="AJ24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL24">
+        <v>901.67459146800002</v>
+      </c>
+      <c r="AM24">
+        <v>901.06502982228994</v>
+      </c>
+      <c r="AN24">
+        <v>144.90419199999999</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3356,6 +3753,21 @@
         <v>171.78623999999999</v>
       </c>
       <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL25">
+        <v>901.67836040500003</v>
+      </c>
+      <c r="AM25">
+        <v>901.08116213977303</v>
+      </c>
+      <c r="AN25">
+        <v>178.733056</v>
+      </c>
+      <c r="AO25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4578,18 +4990,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8BA565-CB29-DF41-86C0-325693778015}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4623,8 +5037,14 @@
       <c r="K1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4658,8 +5078,14 @@
       <c r="K2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4693,8 +5119,14 @@
       <c r="K3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4734,8 +5166,14 @@
       <c r="K4">
         <v>901.68752353000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>411.28142344299999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4775,8 +5213,14 @@
       <c r="K5">
         <v>901.68960319099995</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>901.68162037000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4816,8 +5260,14 @@
       <c r="K6">
         <v>901.67721245400003</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6">
+        <v>420.88149212000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4857,8 +5307,14 @@
       <c r="K7">
         <v>901.59191515400005</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>901.68258537099996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4898,8 +5354,14 @@
       <c r="K8">
         <v>901.69223948199999</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>901.588919777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4939,8 +5401,14 @@
       <c r="K9">
         <v>901.70783484900005</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>901.67113507700003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4980,8 +5448,14 @@
       <c r="K10">
         <v>901.68435881200003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>901.69113702000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -5021,8 +5495,14 @@
       <c r="K11">
         <v>901.72287170499999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11">
+        <v>901.68007574000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5062,8 +5542,14 @@
       <c r="K12">
         <v>901.67789361099994</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>901.68529084700003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5103,8 +5589,14 @@
       <c r="K13">
         <v>901.58992234699997</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>161.11702512400001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5144,8 +5636,14 @@
       <c r="K14">
         <v>100.23334106199999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>901.59869353199997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5185,8 +5683,14 @@
       <c r="K15">
         <v>901.68927400400003</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15">
+        <v>901.68136535300005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5226,8 +5730,14 @@
       <c r="K16">
         <v>901.68209472700005</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>869.65303129699998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5267,8 +5777,14 @@
       <c r="K17">
         <v>901.69477151900003</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>901.68706554599999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5308,8 +5824,14 @@
       <c r="K18">
         <v>901.67485828500003</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>901.68068892700001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5349,8 +5871,14 @@
       <c r="K19">
         <v>901.58268729899999</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>901.68066157700002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5390,8 +5918,14 @@
       <c r="K20">
         <v>901.68978389999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>901.59101434599995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5431,8 +5965,14 @@
       <c r="K21">
         <v>901.68064061300004</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>901.68126990400003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5472,8 +6012,14 @@
       <c r="K22">
         <v>901.68176643000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>901.676364412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5513,8 +6059,14 @@
       <c r="K23">
         <v>901.69052446000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>901.68464145300004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5554,8 +6106,14 @@
       <c r="K24">
         <v>122.45577283</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>901.67459146800002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5595,8 +6153,14 @@
       <c r="K25">
         <v>101.845925041</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>901.67836040500003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -5640,8 +6204,16 @@
         <f xml:space="preserve"> SUMIF(J$4:J$25, "sat",K$4:K$25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <f>COUNTIF(L$4:L$25,"sat")</f>
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f xml:space="preserve"> SUMIF(L$4:L$25, "sat",M$4:M$25)</f>
+        <v>1701.8159468600002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -5685,8 +6257,16 @@
         <f xml:space="preserve"> SUMIF(J$4:J$25, "unsat",K$4:K$25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <f>COUNTIF(L$4:L$25,"unsat")</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f xml:space="preserve"> SUMIF(L$4:L$25, "unsat",M$4:M$25)</f>
+        <v>161.11702512400001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -5730,10 +6310,18 @@
         <f xml:space="preserve"> SUMIF(J$4:J$25, "sat",K$4:K$25)+ SUMIF(J$4:J$25, "unsat",K$4:K$25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f>COUNTIF(L$4:L$25,"sat") + COUNTIF(L$4:L$25,"unsat")</f>
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <f xml:space="preserve"> SUMIF(L$4:L$25, "sat",M$4:M$25)+ SUMIF(L$4:L$25, "unsat",M$4:M$25)</f>
+        <v>1862.9329719840002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5744,90 +6332,126 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <f>COUNTIF(B$4:B$25,"OUT OF MEMORY")</f>
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>COUNTIF(D$4:D$25,"OUT OF MEMORY")</f>
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f>COUNTIF(F$4:F$25,"OUT OF MEMORY")</f>
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <f>COUNTIF(H$4:H$25,"OUT OF MEMORY")</f>
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <f>COUNTIF(J$4:J$25,"OUT OF MEMORY")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="L32">
+        <f>COUNTIF(L$4:L$25,"OUT OF MEMORY")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <f>COUNTIF(B$4:B$25,"TIMEOUT")</f>
         <v>13</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f>COUNTIF(D$4:D$25,"TIMEOUT")</f>
         <v>15</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f>COUNTIF(F$4:F$25,"TIMEOUT")</f>
         <v>14</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <f>COUNTIF(H$4:H$25,"TIMEOUT")</f>
         <v>18</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <f>COUNTIF(J$4:J$25,"TIMEOUT")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="L33">
+        <f>COUNTIF(L$4:L$25,"TIMEOUT")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B33">
-        <f>22-B29-B31-B32</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f>22-D29-D31-D32</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>22-F29-F31-F32</f>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f>22-H29-H31-H32</f>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f>22-J29-J31-J32</f>
+      <c r="B34">
+        <f>22-B29-B32-B33</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>22-D29-D32-D33</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>22-F29-F32-F33</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>22-H29-H32-H33</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>22-J29-J32-J33</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>22-L29-L32-L33</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K25" xr:uid="{7BA85B73-FD3C-5048-9A1A-966612B6D032}"/>
+  <autoFilter ref="A1:M25" xr:uid="{AC914079-61A2-314D-856B-7A0B32EC8DAB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/combinedresults/sat.xlsx
+++ b/results/combinedresults/sat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB44FC-7983-0F49-B3DE-A795DEA392C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C43CE4-BAD1-8745-B11F-EF0B5C43A97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" xr2:uid="{093F9DC5-1B13-C14B-A0BF-58F8A491CE77}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'realtime (sat2021paper)'!$A$1:$M$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'realtime (thesis)'!$A$1:$K$25</definedName>
+    <definedName name="benchmark_dqbdd.2021_03_29_1755.results.tree_simpleelimination_atbeginning.SAT" localSheetId="0">runs!$AP$1:$AT$25</definedName>
+    <definedName name="benchmark_dqbdd.2021_04_06_0752.results.tree_simpleelimination_atbeginning.SAT" localSheetId="0">runs!$AU$1:$AY$25</definedName>
     <definedName name="benchmark_hqs.2021_03_15_2006.results.SAT" localSheetId="0">runs!$AF$1:$AJ$25</definedName>
     <definedName name="benchmark_hqs.2021_03_18_1932.results.SAT" localSheetId="0">runs!$AK$1:$AO$25</definedName>
     <definedName name="benchmark_iprover.2021_03_15_1800.results.qbf_mode_noproofreconstruction.SAT" localSheetId="0">runs!$AB$1:$AE$25</definedName>
@@ -43,7 +45,21 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{45F94791-3283-A540-A709-E21CA2A5588B}" name="benchmark-hqs.2021-03-15_2006.results.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{6656BD15-76DF-504F-820E-E3D1CEC429A8}" name="benchmark-dqbdd.2021-03-29_1755.results.tree-simpleelimination-atbeginning.SAT" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-dqbdd.2021-03-29_1755.results.tree-simpleelimination-atbeginning.SAT.csv" thousands=" ">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{4CE33BE9-2E35-C04A-9EF1-CCE4704EF802}" name="benchmark-dqbdd.2021-04-06_0752.results.tree-simpleelimination-atbeginning.SAT" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-dqbdd.2021-04-06_0752.results.tree-simpleelimination-atbeginning.SAT.csv" thousands=" ">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{45F94791-3283-A540-A709-E21CA2A5588B}" name="benchmark-hqs.2021-03-15_2006.results.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-15_2006.results.SAT.csv" thousands=" ">
       <textFields count="6">
         <textField/>
@@ -55,8 +71,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{5CCEDD4F-8E85-324E-B812-3DD189021D72}" name="benchmark-hqs.2021-03-18_1932.results.SAT" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-18_1932.results.SAT.csv" thousands=" ">
+  <connection id="4" xr16:uid="{5CCEDD4F-8E85-324E-B812-3DD189021D72}" name="benchmark-hqs.2021-03-18_1932.results.SAT" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-hqs.2021-03-18_1932.results.SAT.csv" thousands=" ">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -67,7 +83,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{E9B45343-3DF2-7E4B-8AE9-FC29467FC43C}" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{E9B45343-3DF2-7E4B-8AE9-FC29467FC43C}" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/jurajsic/OneDrive/vyzkum/dqbf/DQBFbenchmarks/results/benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT.csv" thousands=" ">
       <textFields count="5">
         <textField/>
@@ -82,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="60">
   <si>
     <t>tool</t>
   </si>
@@ -257,6 +273,12 @@
   <si>
     <t>uniquely solved (with newer HQS)</t>
   </si>
+  <si>
+    <t>DQBDD 1.2-beta5</t>
+  </si>
+  <si>
+    <t>DQBDD 1.2-beta6</t>
+  </si>
 </sst>
 </file>
 
@@ -318,15 +340,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-18_1932.results.SAT" connectionId="2" xr16:uid="{452194D2-48E1-FA4C-9655-7E6CF17C6A66}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-dqbdd.2021-04-06_0752.results.tree-simpleelimination-atbeginning.SAT" connectionId="2" xr16:uid="{65A3E3B8-9267-2748-AC22-F902A034C6B9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" connectionId="3" xr16:uid="{51D45A2C-77CF-184F-B651-A958E2C405C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-18_1932.results.SAT" connectionId="4" xr16:uid="{452194D2-48E1-FA4C-9655-7E6CF17C6A66}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-15_2006.results.SAT" connectionId="1" xr16:uid="{AB073F89-789C-A947-84E8-33DCFECEDC4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-dqbdd.2021-03-29_1755.results.tree-simpleelimination-atbeginning.SAT" connectionId="1" xr16:uid="{D202729C-A7FD-0344-902B-4600B18AADB0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-iprover.2021-03-15_1800.results.qbf-mode-noproofreconstruction.SAT" connectionId="5" xr16:uid="{51D45A2C-77CF-184F-B651-A958E2C405C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark-hqs.2021-03-15_2006.results.SAT" connectionId="3" xr16:uid="{AB073F89-789C-A947-84E8-33DCFECEDC4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5C62E-C27B-FB47-BBDD-61BAC8A1522B}">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,9 +674,10 @@
     <col min="38" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="51" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +801,38 @@
       <c r="AO1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -895,8 +956,38 @@
       <c r="AO2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1020,8 +1111,38 @@
       <c r="AO3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1266,38 @@
       <c r="AO4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ4">
+        <v>901.59577624899998</v>
+      </c>
+      <c r="AR4">
+        <v>901.05734302848498</v>
+      </c>
+      <c r="AS4">
+        <v>217.10847999999999</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV4">
+        <v>901.68571974199995</v>
+      </c>
+      <c r="AW4">
+        <v>901.06686003506104</v>
+      </c>
+      <c r="AX4">
+        <v>203.902976</v>
+      </c>
+      <c r="AY4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1270,8 +1421,38 @@
       <c r="AO5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ5">
+        <v>901.68157648399995</v>
+      </c>
+      <c r="AR5">
+        <v>901.058822028338</v>
+      </c>
+      <c r="AS5">
+        <v>175.910912</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV5">
+        <v>901.70945421299996</v>
+      </c>
+      <c r="AW5">
+        <v>901.15896281599998</v>
+      </c>
+      <c r="AX5">
+        <v>176.11980800000001</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1395,8 +1576,38 @@
       <c r="AO6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ6">
+        <v>107.07440086699999</v>
+      </c>
+      <c r="AR6">
+        <v>107.049698323011</v>
+      </c>
+      <c r="AS6">
+        <v>114.573312</v>
+      </c>
+      <c r="AT6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV6">
+        <v>107.345228863</v>
+      </c>
+      <c r="AW6">
+        <v>107.30537761002699</v>
+      </c>
+      <c r="AX6">
+        <v>114.44224</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1731,38 @@
       <c r="AO7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ7">
+        <v>901.69414906600002</v>
+      </c>
+      <c r="AR7">
+        <v>901.06257980316798</v>
+      </c>
+      <c r="AS7">
+        <v>250.01164799999901</v>
+      </c>
+      <c r="AT7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV7">
+        <v>901.78526861299997</v>
+      </c>
+      <c r="AW7">
+        <v>901.16073232144095</v>
+      </c>
+      <c r="AX7">
+        <v>297.291775999999</v>
+      </c>
+      <c r="AY7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1645,8 +1886,38 @@
       <c r="AO8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ8">
+        <v>901.68342526599997</v>
+      </c>
+      <c r="AR8">
+        <v>901.04720444977204</v>
+      </c>
+      <c r="AS8">
+        <v>267.51795199999998</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV8">
+        <v>901.82546806799996</v>
+      </c>
+      <c r="AW8">
+        <v>901.19021400809197</v>
+      </c>
+      <c r="AX8">
+        <v>267.51795199999998</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1770,8 +2041,38 @@
       <c r="AO9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ9">
+        <v>901.68609772800005</v>
+      </c>
+      <c r="AR9">
+        <v>901.05455472320295</v>
+      </c>
+      <c r="AS9">
+        <v>199.31955199999999</v>
+      </c>
+      <c r="AT9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV9">
+        <v>901.73412014099995</v>
+      </c>
+      <c r="AW9">
+        <v>901.18438866734505</v>
+      </c>
+      <c r="AX9">
+        <v>199.05331199999901</v>
+      </c>
+      <c r="AY9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1895,8 +2196,38 @@
       <c r="AO10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ10">
+        <v>901.68055619799998</v>
+      </c>
+      <c r="AR10">
+        <v>901.09414947777896</v>
+      </c>
+      <c r="AS10">
+        <v>197.44358399999999</v>
+      </c>
+      <c r="AT10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV10">
+        <v>901.69163839999999</v>
+      </c>
+      <c r="AW10">
+        <v>901.09413664042904</v>
+      </c>
+      <c r="AX10">
+        <v>246.82905599999901</v>
+      </c>
+      <c r="AY10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2020,8 +2351,38 @@
       <c r="AO11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ11">
+        <v>901.60026936099996</v>
+      </c>
+      <c r="AR11">
+        <v>901.07949330657698</v>
+      </c>
+      <c r="AS11">
+        <v>229.482496</v>
+      </c>
+      <c r="AT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV11">
+        <v>901.68415084399999</v>
+      </c>
+      <c r="AW11">
+        <v>901.04902371019102</v>
+      </c>
+      <c r="AX11">
+        <v>200.64665599999901</v>
+      </c>
+      <c r="AY11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2145,8 +2506,38 @@
       <c r="AO12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ12">
+        <v>284.24140435200002</v>
+      </c>
+      <c r="AR12">
+        <v>284.09002390503798</v>
+      </c>
+      <c r="AS12">
+        <v>160.13311999999999</v>
+      </c>
+      <c r="AT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV12">
+        <v>901.70886412000004</v>
+      </c>
+      <c r="AW12">
+        <v>901.08022721111695</v>
+      </c>
+      <c r="AX12">
+        <v>239.14086399999999</v>
+      </c>
+      <c r="AY12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2270,8 +2661,38 @@
       <c r="AO13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ13">
+        <v>901.74888651100002</v>
+      </c>
+      <c r="AR13">
+        <v>901.13079878687802</v>
+      </c>
+      <c r="AS13">
+        <v>256.37683199999998</v>
+      </c>
+      <c r="AT13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV13">
+        <v>901.68197387299995</v>
+      </c>
+      <c r="AW13">
+        <v>901.04725237190701</v>
+      </c>
+      <c r="AX13">
+        <v>287.322112</v>
+      </c>
+      <c r="AY13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2395,8 +2816,38 @@
       <c r="AO14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ14">
+        <v>220.18560153300001</v>
+      </c>
+      <c r="AR14">
+        <v>220.074921429157</v>
+      </c>
+      <c r="AS14">
+        <v>4000.0020479999998</v>
+      </c>
+      <c r="AT14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV14">
+        <v>219.99582634699999</v>
+      </c>
+      <c r="AW14">
+        <v>219.92319211363699</v>
+      </c>
+      <c r="AX14">
+        <v>4000.0020479999998</v>
+      </c>
+      <c r="AY14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2520,8 +2971,38 @@
       <c r="AO15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ15">
+        <v>20.949696774</v>
+      </c>
+      <c r="AR15">
+        <v>20.9984118491411</v>
+      </c>
+      <c r="AS15">
+        <v>39.485439999999997</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV15">
+        <v>21.022360595999999</v>
+      </c>
+      <c r="AW15">
+        <v>21.047267004847502</v>
+      </c>
+      <c r="AX15">
+        <v>39.616512</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2645,8 +3126,38 @@
       <c r="AO16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ16">
+        <v>901.69358864499998</v>
+      </c>
+      <c r="AR16">
+        <v>901.05452246963898</v>
+      </c>
+      <c r="AS16">
+        <v>269.86496</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV16">
+        <v>901.68820406600003</v>
+      </c>
+      <c r="AW16">
+        <v>901.07908498495794</v>
+      </c>
+      <c r="AX16">
+        <v>242.32345599999999</v>
+      </c>
+      <c r="AY16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2770,8 +3281,38 @@
       <c r="AO17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ17">
+        <v>901.68600745799995</v>
+      </c>
+      <c r="AR17">
+        <v>901.06244268268301</v>
+      </c>
+      <c r="AS17">
+        <v>242.556928</v>
+      </c>
+      <c r="AT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV17">
+        <v>901.69094054499999</v>
+      </c>
+      <c r="AW17">
+        <v>901.046109355986</v>
+      </c>
+      <c r="AX17">
+        <v>227.868672</v>
+      </c>
+      <c r="AY17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2895,8 +3436,38 @@
       <c r="AO18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ18">
+        <v>901.69196937200002</v>
+      </c>
+      <c r="AR18">
+        <v>901.07840057462397</v>
+      </c>
+      <c r="AS18">
+        <v>244.72371199999901</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV18">
+        <v>901.59213986500004</v>
+      </c>
+      <c r="AW18">
+        <v>901.07399800419796</v>
+      </c>
+      <c r="AX18">
+        <v>243.920896</v>
+      </c>
+      <c r="AY18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3020,8 +3591,38 @@
       <c r="AO19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ19">
+        <v>901.68221624099999</v>
+      </c>
+      <c r="AR19">
+        <v>901.07843736559096</v>
+      </c>
+      <c r="AS19">
+        <v>221.57721599999999</v>
+      </c>
+      <c r="AT19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV19">
+        <v>901.67963608299999</v>
+      </c>
+      <c r="AW19">
+        <v>901.06666650623004</v>
+      </c>
+      <c r="AX19">
+        <v>197.84499199999999</v>
+      </c>
+      <c r="AY19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3145,8 +3746,38 @@
       <c r="AO20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ20">
+        <v>901.60007479800004</v>
+      </c>
+      <c r="AR20">
+        <v>901.051279254257</v>
+      </c>
+      <c r="AS20">
+        <v>258.08895999999999</v>
+      </c>
+      <c r="AT20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV20">
+        <v>901.68871842999999</v>
+      </c>
+      <c r="AW20">
+        <v>901.06874434649899</v>
+      </c>
+      <c r="AX20">
+        <v>257.937408</v>
+      </c>
+      <c r="AY20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3270,8 +3901,38 @@
       <c r="AO21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ21">
+        <v>901.67436895100002</v>
+      </c>
+      <c r="AR21">
+        <v>901.16312265396095</v>
+      </c>
+      <c r="AS21">
+        <v>221.71647999999999</v>
+      </c>
+      <c r="AT21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV21">
+        <v>901.68229689500004</v>
+      </c>
+      <c r="AW21">
+        <v>901.13157501071601</v>
+      </c>
+      <c r="AX21">
+        <v>217.780224</v>
+      </c>
+      <c r="AY21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3395,8 +4056,38 @@
       <c r="AO22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ22">
+        <v>901.68965930100001</v>
+      </c>
+      <c r="AR22">
+        <v>901.11013633757796</v>
+      </c>
+      <c r="AS22">
+        <v>208.965632</v>
+      </c>
+      <c r="AT22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV22">
+        <v>901.68695791200003</v>
+      </c>
+      <c r="AW22">
+        <v>901.09510295838095</v>
+      </c>
+      <c r="AX22">
+        <v>265.10540800000001</v>
+      </c>
+      <c r="AY22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3520,8 +4211,38 @@
       <c r="AO23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ23">
+        <v>901.68147125600001</v>
+      </c>
+      <c r="AR23">
+        <v>901.06215453892901</v>
+      </c>
+      <c r="AS23">
+        <v>230.47372799999999</v>
+      </c>
+      <c r="AT23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV23">
+        <v>901.68843791799998</v>
+      </c>
+      <c r="AW23">
+        <v>901.06187366694201</v>
+      </c>
+      <c r="AX23">
+        <v>210.444288</v>
+      </c>
+      <c r="AY23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3645,8 +4366,38 @@
       <c r="AO24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ24">
+        <v>36.624553472000002</v>
+      </c>
+      <c r="AR24">
+        <v>36.630265273153697</v>
+      </c>
+      <c r="AS24">
+        <v>63.643647999999999</v>
+      </c>
+      <c r="AT24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV24">
+        <v>36.564779473000002</v>
+      </c>
+      <c r="AW24">
+        <v>36.5897620096802</v>
+      </c>
+      <c r="AX24">
+        <v>63.647743999999904</v>
+      </c>
+      <c r="AY24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3768,6 +4519,36 @@
         <v>178.733056</v>
       </c>
       <c r="AO25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ25">
+        <v>216.99816397500001</v>
+      </c>
+      <c r="AR25">
+        <v>216.886450000107</v>
+      </c>
+      <c r="AS25">
+        <v>1647.2883199999901</v>
+      </c>
+      <c r="AT25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV25">
+        <v>216.72913328499999</v>
+      </c>
+      <c r="AW25">
+        <v>216.645933151245</v>
+      </c>
+      <c r="AX25">
+        <v>1646.968832</v>
+      </c>
+      <c r="AY25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4992,7 +5773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8BA565-CB29-DF41-86C0-325693778015}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
